--- a/data/Root_dmg_tot.xlsx
+++ b/data/Root_dmg_tot.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://irtacat-my.sharepoint.com/personal/alejandro_munoz_irta_cat/Documents/Documentos/Exclusion-Lisso-Analysis/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EBF209D0-1C83-4522-88DA-31CE7AD52EB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="8_{EBF209D0-1C83-4522-88DA-31CE7AD52EB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C7A8489D-AD17-4AB4-8A3A-FC18799E5877}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-7515" windowWidth="29040" windowHeight="15720" xr2:uid="{470F8EFD-4E5B-4CCE-B3CE-FCB4750212B9}"/>
   </bookViews>
   <sheets>
-    <sheet name="Daño en raiz" sheetId="1" r:id="rId1"/>
+    <sheet name="Root dmg" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,31 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="890" uniqueCount="13">
-  <si>
-    <t>Fecha</t>
-  </si>
-  <si>
-    <t>ID Parcela</t>
-  </si>
-  <si>
-    <t>Tratamiento</t>
-  </si>
-  <si>
-    <t>Repetición</t>
-  </si>
-  <si>
-    <t>Peso biomasa raiz</t>
-  </si>
-  <si>
-    <t>Observaciones</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="890" uniqueCount="12">
   <si>
     <t>FE</t>
-  </si>
-  <si>
-    <t>Ojo, no siempre el mismo numero de repeticiones. Varió dependiendo de la fecha
-Peso de raíz asociado a n de larvas</t>
   </si>
   <si>
     <t>Peso de raíz asociado a n de larvas</t>
@@ -76,6 +54,24 @@
   </si>
   <si>
     <t>NO SE PUEDEN ASOCIAR LAS LARVAS A ESTE PESO (APUNTADO EN ORDEN EQUIVOCADO)</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Field</t>
+  </si>
+  <si>
+    <t>Treatment</t>
+  </si>
+  <si>
+    <t>Repeats</t>
+  </si>
+  <si>
+    <t>Root_weight</t>
+  </si>
+  <si>
+    <t>Observations</t>
   </si>
 </sst>
 </file>
@@ -258,12 +254,12 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CA069561-F2C7-4693-BE36-27BA55431008}" name="Tabla5" displayName="Tabla5" ref="A1:F685" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
   <autoFilter ref="A1:F685" xr:uid="{7F76055B-7275-47D3-8C12-1235C3A8AA54}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{556005AC-3289-4222-8B17-F39120C06BD8}" name="Fecha" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{D3341270-6D59-4685-A498-C1D928AB7814}" name="ID Parcela" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{ADCF6CC5-3A2B-4CEA-AC53-FDA5F1B7FE77}" name="Tratamiento" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{26ABFD38-47B1-4A8C-AE06-180CBB6C2FF1}" name="Repetición" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{592859AD-CAB6-48A6-99EB-7435E8C29F8A}" name="Peso biomasa raiz" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{D7C6A46A-4597-4FEF-9120-7D15C7ECC999}" name="Observaciones" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{556005AC-3289-4222-8B17-F39120C06BD8}" name="Date" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{D3341270-6D59-4685-A498-C1D928AB7814}" name="Field" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{ADCF6CC5-3A2B-4CEA-AC53-FDA5F1B7FE77}" name="Treatment" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{26ABFD38-47B1-4A8C-AE06-180CBB6C2FF1}" name="Repeats" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{592859AD-CAB6-48A6-99EB-7435E8C29F8A}" name="Root_weight" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{D7C6A46A-4597-4FEF-9120-7D15C7ECC999}" name="Observations" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -569,40 +565,40 @@
   <dimension ref="A1:F685"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F211" sqref="F211"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.54296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="140.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.36328125" customWidth="1"/>
+    <col min="3" max="3" width="13.54296875" customWidth="1"/>
+    <col min="4" max="4" width="10.6328125" customWidth="1"/>
+    <col min="5" max="5" width="16.08984375" customWidth="1"/>
+    <col min="6" max="6" width="89" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>45827</v>
       </c>
@@ -610,7 +606,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D2" s="1">
         <v>1</v>
@@ -619,7 +615,7 @@
         <v>0.76</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
@@ -630,7 +626,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D3" s="1">
         <v>2</v>
@@ -639,7 +635,7 @@
         <v>0.16</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
@@ -650,7 +646,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D4" s="1">
         <v>3</v>
@@ -659,7 +655,7 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
@@ -670,7 +666,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D5" s="1">
         <v>4</v>
@@ -679,7 +675,7 @@
         <v>0.72</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
@@ -690,7 +686,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D6" s="1">
         <v>5</v>
@@ -699,7 +695,7 @@
         <v>0.18</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
@@ -710,7 +706,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D7" s="1">
         <v>1</v>
@@ -719,7 +715,7 @@
         <v>0.17</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
@@ -730,7 +726,7 @@
         <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D8" s="1">
         <v>2</v>
@@ -739,7 +735,7 @@
         <v>0.47</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
@@ -750,7 +746,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D9" s="1">
         <v>3</v>
@@ -759,7 +755,7 @@
         <v>0.56999999999999995</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
@@ -770,7 +766,7 @@
         <v>1</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D10" s="1">
         <v>4</v>
@@ -779,7 +775,7 @@
         <v>0.46</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
@@ -790,7 +786,7 @@
         <v>1</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D11" s="1">
         <v>5</v>
@@ -799,7 +795,7 @@
         <v>0.36</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
@@ -810,7 +806,7 @@
         <v>1</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D12" s="1">
         <v>1</v>
@@ -819,7 +815,7 @@
         <v>0.41</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
@@ -830,7 +826,7 @@
         <v>1</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D13" s="1">
         <v>2</v>
@@ -839,7 +835,7 @@
         <v>1.68</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
@@ -850,7 +846,7 @@
         <v>1</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D14" s="1">
         <v>3</v>
@@ -859,7 +855,7 @@
         <v>0.53</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
@@ -870,7 +866,7 @@
         <v>1</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D15" s="1">
         <v>4</v>
@@ -879,7 +875,7 @@
         <v>0.75</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
@@ -890,7 +886,7 @@
         <v>1</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D16" s="1">
         <v>5</v>
@@ -899,7 +895,7 @@
         <v>0.21</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
@@ -910,7 +906,7 @@
         <v>1</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D17" s="1">
         <v>1</v>
@@ -919,7 +915,7 @@
         <v>0.17</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
@@ -930,7 +926,7 @@
         <v>1</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D18" s="1">
         <v>2</v>
@@ -939,7 +935,7 @@
         <v>0.74</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
@@ -950,7 +946,7 @@
         <v>1</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D19" s="1">
         <v>3</v>
@@ -959,7 +955,7 @@
         <v>0.31</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
@@ -970,7 +966,7 @@
         <v>1</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D20" s="1">
         <v>4</v>
@@ -979,7 +975,7 @@
         <v>0.8</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
@@ -990,7 +986,7 @@
         <v>1</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D21" s="1">
         <v>5</v>
@@ -999,7 +995,7 @@
         <v>0.43</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
@@ -1010,7 +1006,7 @@
         <v>2</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D22" s="1">
         <v>1</v>
@@ -1019,7 +1015,7 @@
         <v>0.4</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
@@ -1030,7 +1026,7 @@
         <v>2</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D23" s="1">
         <v>2</v>
@@ -1039,7 +1035,7 @@
         <v>1.03</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
@@ -1050,7 +1046,7 @@
         <v>2</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D24" s="1">
         <v>3</v>
@@ -1059,7 +1055,7 @@
         <v>0.23</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
@@ -1070,7 +1066,7 @@
         <v>2</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D25" s="1">
         <v>4</v>
@@ -1079,7 +1075,7 @@
         <v>0.64</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">
@@ -1090,7 +1086,7 @@
         <v>2</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D26" s="1">
         <v>5</v>
@@ -1099,7 +1095,7 @@
         <v>0.21</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
@@ -1110,7 +1106,7 @@
         <v>2</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D27" s="1">
         <v>1</v>
@@ -1119,7 +1115,7 @@
         <v>0.44</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.35">
@@ -1130,7 +1126,7 @@
         <v>2</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D28" s="1">
         <v>2</v>
@@ -1139,7 +1135,7 @@
         <v>0.34</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
@@ -1150,7 +1146,7 @@
         <v>2</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D29" s="1">
         <v>3</v>
@@ -1159,7 +1155,7 @@
         <v>0.98</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.35">
@@ -1170,7 +1166,7 @@
         <v>2</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D30" s="1">
         <v>4</v>
@@ -1179,7 +1175,7 @@
         <v>1.45</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.35">
@@ -1190,7 +1186,7 @@
         <v>2</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D31" s="1">
         <v>5</v>
@@ -1199,7 +1195,7 @@
         <v>0.88</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.35">
@@ -1210,7 +1206,7 @@
         <v>2</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D32" s="1">
         <v>1</v>
@@ -1219,7 +1215,7 @@
         <v>2.42</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.35">
@@ -1230,7 +1226,7 @@
         <v>2</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D33" s="1">
         <v>2</v>
@@ -1239,7 +1235,7 @@
         <v>1.38</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.35">
@@ -1250,7 +1246,7 @@
         <v>2</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D34" s="1">
         <v>3</v>
@@ -1259,7 +1255,7 @@
         <v>1.32</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.35">
@@ -1270,7 +1266,7 @@
         <v>2</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D35" s="1">
         <v>4</v>
@@ -1279,7 +1275,7 @@
         <v>0.98</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.35">
@@ -1290,7 +1286,7 @@
         <v>2</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D36" s="1">
         <v>5</v>
@@ -1299,7 +1295,7 @@
         <v>1.34</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.35">
@@ -1310,7 +1306,7 @@
         <v>2</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D37" s="1">
         <v>1</v>
@@ -1319,7 +1315,7 @@
         <v>0.63</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.35">
@@ -1330,7 +1326,7 @@
         <v>2</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D38" s="1">
         <v>2</v>
@@ -1339,7 +1335,7 @@
         <v>0.44</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.35">
@@ -1350,7 +1346,7 @@
         <v>2</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D39" s="1">
         <v>3</v>
@@ -1359,7 +1355,7 @@
         <v>0.36</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.35">
@@ -1370,7 +1366,7 @@
         <v>2</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D40" s="1">
         <v>4</v>
@@ -1379,7 +1375,7 @@
         <v>0.97</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.35">
@@ -1390,7 +1386,7 @@
         <v>2</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D41" s="1">
         <v>5</v>
@@ -1399,7 +1395,7 @@
         <v>0.49</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.35">
@@ -1410,7 +1406,7 @@
         <v>3</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D42" s="1">
         <v>1</v>
@@ -1419,7 +1415,7 @@
         <v>0.51</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.35">
@@ -1430,7 +1426,7 @@
         <v>3</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D43" s="1">
         <v>2</v>
@@ -1439,7 +1435,7 @@
         <v>0.63</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.35">
@@ -1450,7 +1446,7 @@
         <v>3</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D44" s="1">
         <v>3</v>
@@ -1459,7 +1455,7 @@
         <v>0.27</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.35">
@@ -1470,7 +1466,7 @@
         <v>3</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D45" s="1">
         <v>4</v>
@@ -1479,7 +1475,7 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.35">
@@ -1490,7 +1486,7 @@
         <v>3</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D46" s="1">
         <v>5</v>
@@ -1499,7 +1495,7 @@
         <v>0.75</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.35">
@@ -1510,7 +1506,7 @@
         <v>3</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D47" s="1">
         <v>1</v>
@@ -1519,7 +1515,7 @@
         <v>0.61</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.35">
@@ -1530,7 +1526,7 @@
         <v>3</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D48" s="1">
         <v>2</v>
@@ -1539,7 +1535,7 @@
         <v>0.54</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.35">
@@ -1550,7 +1546,7 @@
         <v>3</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D49" s="1">
         <v>3</v>
@@ -1559,7 +1555,7 @@
         <v>0.37</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.35">
@@ -1570,7 +1566,7 @@
         <v>3</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D50" s="1">
         <v>4</v>
@@ -1579,7 +1575,7 @@
         <v>0.25</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.35">
@@ -1590,7 +1586,7 @@
         <v>3</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D51" s="1">
         <v>5</v>
@@ -1599,7 +1595,7 @@
         <v>0.18</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.35">
@@ -1610,7 +1606,7 @@
         <v>3</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D52" s="1">
         <v>1</v>
@@ -1619,7 +1615,7 @@
         <v>0.7</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.35">
@@ -1630,7 +1626,7 @@
         <v>3</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D53" s="1">
         <v>2</v>
@@ -1639,7 +1635,7 @@
         <v>3.15</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.35">
@@ -1650,7 +1646,7 @@
         <v>3</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D54" s="1">
         <v>3</v>
@@ -1659,7 +1655,7 @@
         <v>0.91</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.35">
@@ -1670,7 +1666,7 @@
         <v>3</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D55" s="1">
         <v>4</v>
@@ -1679,7 +1675,7 @@
         <v>0.35</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.35">
@@ -1690,7 +1686,7 @@
         <v>3</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D56" s="1">
         <v>5</v>
@@ -1699,7 +1695,7 @@
         <v>0.68</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.35">
@@ -1710,7 +1706,7 @@
         <v>3</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D57" s="1">
         <v>1</v>
@@ -1719,7 +1715,7 @@
         <v>0.35</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.35">
@@ -1730,7 +1726,7 @@
         <v>3</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D58" s="1">
         <v>2</v>
@@ -1739,7 +1735,7 @@
         <v>1.05</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.35">
@@ -1750,7 +1746,7 @@
         <v>3</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D59" s="1">
         <v>3</v>
@@ -1759,7 +1755,7 @@
         <v>0.56999999999999995</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.35">
@@ -1770,7 +1766,7 @@
         <v>3</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D60" s="1">
         <v>4</v>
@@ -1779,7 +1775,7 @@
         <v>0.63</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.35">
@@ -1790,7 +1786,7 @@
         <v>3</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D61" s="1">
         <v>5</v>
@@ -1799,7 +1795,7 @@
         <v>1</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.35">
@@ -1810,7 +1806,7 @@
         <v>4</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D62" s="1">
         <v>1</v>
@@ -1819,7 +1815,7 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.35">
@@ -1830,7 +1826,7 @@
         <v>4</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D63" s="1">
         <v>2</v>
@@ -1839,7 +1835,7 @@
         <v>0.38</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.35">
@@ -1850,7 +1846,7 @@
         <v>4</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D64" s="1">
         <v>3</v>
@@ -1859,7 +1855,7 @@
         <v>0.32</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.35">
@@ -1870,7 +1866,7 @@
         <v>4</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D65" s="1">
         <v>4</v>
@@ -1879,7 +1875,7 @@
         <v>1.06</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.35">
@@ -1890,7 +1886,7 @@
         <v>4</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D66" s="1">
         <v>5</v>
@@ -1899,7 +1895,7 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.35">
@@ -1910,7 +1906,7 @@
         <v>4</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D67" s="1">
         <v>1</v>
@@ -1919,7 +1915,7 @@
         <v>0.78</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.35">
@@ -1930,7 +1926,7 @@
         <v>4</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D68" s="1">
         <v>2</v>
@@ -1939,7 +1935,7 @@
         <v>0.97</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.35">
@@ -1950,7 +1946,7 @@
         <v>4</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D69" s="1">
         <v>3</v>
@@ -1959,7 +1955,7 @@
         <v>1.37</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.35">
@@ -1970,7 +1966,7 @@
         <v>4</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D70" s="1">
         <v>4</v>
@@ -1979,7 +1975,7 @@
         <v>0.44</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.35">
@@ -1990,7 +1986,7 @@
         <v>4</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D71" s="1">
         <v>5</v>
@@ -1999,7 +1995,7 @@
         <v>0.98</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.35">
@@ -2010,7 +2006,7 @@
         <v>4</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D72" s="1">
         <v>1</v>
@@ -2019,7 +2015,7 @@
         <v>0.67</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.35">
@@ -2030,7 +2026,7 @@
         <v>4</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D73" s="1">
         <v>2</v>
@@ -2039,7 +2035,7 @@
         <v>0.63</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.35">
@@ -2050,7 +2046,7 @@
         <v>4</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D74" s="1">
         <v>3</v>
@@ -2059,7 +2055,7 @@
         <v>0.65</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.35">
@@ -2070,7 +2066,7 @@
         <v>4</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D75" s="1">
         <v>4</v>
@@ -2079,7 +2075,7 @@
         <v>1.04</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.35">
@@ -2090,7 +2086,7 @@
         <v>4</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D76" s="1">
         <v>5</v>
@@ -2099,7 +2095,7 @@
         <v>1.63</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.35">
@@ -2110,7 +2106,7 @@
         <v>4</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D77" s="1">
         <v>1</v>
@@ -2119,7 +2115,7 @@
         <v>0.38</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.35">
@@ -2130,7 +2126,7 @@
         <v>4</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D78" s="1">
         <v>2</v>
@@ -2139,7 +2135,7 @@
         <v>0.64</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.35">
@@ -2150,7 +2146,7 @@
         <v>4</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D79" s="1">
         <v>3</v>
@@ -2159,7 +2155,7 @@
         <v>0.5</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.35">
@@ -2170,7 +2166,7 @@
         <v>4</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D80" s="1">
         <v>4</v>
@@ -2179,7 +2175,7 @@
         <v>0.3</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.35">
@@ -2190,7 +2186,7 @@
         <v>4</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D81" s="1">
         <v>5</v>
@@ -2199,7 +2195,7 @@
         <v>2.0699999999999998</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.35">
@@ -2210,7 +2206,7 @@
         <v>5</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D82" s="1">
         <v>1</v>
@@ -2219,7 +2215,7 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.35">
@@ -2230,7 +2226,7 @@
         <v>5</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D83" s="1">
         <v>2</v>
@@ -2239,7 +2235,7 @@
         <v>0.4</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.35">
@@ -2250,7 +2246,7 @@
         <v>5</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D84" s="1">
         <v>3</v>
@@ -2259,7 +2255,7 @@
         <v>0.08</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.35">
@@ -2270,7 +2266,7 @@
         <v>5</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D85" s="1">
         <v>4</v>
@@ -2279,7 +2275,7 @@
         <v>0.25</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.35">
@@ -2290,7 +2286,7 @@
         <v>5</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D86" s="1">
         <v>5</v>
@@ -2299,7 +2295,7 @@
         <v>0.4</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.35">
@@ -2310,7 +2306,7 @@
         <v>5</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D87" s="1">
         <v>1</v>
@@ -2319,7 +2315,7 @@
         <v>0.42</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.35">
@@ -2330,7 +2326,7 @@
         <v>5</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D88" s="1">
         <v>2</v>
@@ -2339,7 +2335,7 @@
         <v>0.46</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.35">
@@ -2350,7 +2346,7 @@
         <v>5</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D89" s="1">
         <v>3</v>
@@ -2359,7 +2355,7 @@
         <v>0.42</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.35">
@@ -2370,7 +2366,7 @@
         <v>5</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D90" s="1">
         <v>4</v>
@@ -2379,7 +2375,7 @@
         <v>0.3</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.35">
@@ -2390,7 +2386,7 @@
         <v>5</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D91" s="1">
         <v>5</v>
@@ -2399,7 +2395,7 @@
         <v>0.24</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.35">
@@ -2410,7 +2406,7 @@
         <v>5</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D92" s="1">
         <v>1</v>
@@ -2419,7 +2415,7 @@
         <v>0.24</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.35">
@@ -2430,7 +2426,7 @@
         <v>5</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D93" s="1">
         <v>2</v>
@@ -2439,7 +2435,7 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.35">
@@ -2450,7 +2446,7 @@
         <v>5</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D94" s="1">
         <v>3</v>
@@ -2459,7 +2455,7 @@
         <v>0.43</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.35">
@@ -2470,7 +2466,7 @@
         <v>5</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D95" s="1">
         <v>4</v>
@@ -2479,7 +2475,7 @@
         <v>0.63</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.35">
@@ -2490,7 +2486,7 @@
         <v>5</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D96" s="1">
         <v>5</v>
@@ -2499,7 +2495,7 @@
         <v>0.23</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.35">
@@ -2510,7 +2506,7 @@
         <v>5</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D97" s="1">
         <v>1</v>
@@ -2519,7 +2515,7 @@
         <v>0.16</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.35">
@@ -2530,7 +2526,7 @@
         <v>5</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D98" s="1">
         <v>2</v>
@@ -2539,7 +2535,7 @@
         <v>0.83</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.35">
@@ -2550,7 +2546,7 @@
         <v>5</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D99" s="1">
         <v>3</v>
@@ -2559,7 +2555,7 @@
         <v>0.75</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.35">
@@ -2570,7 +2566,7 @@
         <v>5</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D100" s="1">
         <v>4</v>
@@ -2579,7 +2575,7 @@
         <v>0.32</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.35">
@@ -2590,7 +2586,7 @@
         <v>5</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D101" s="1">
         <v>5</v>
@@ -2599,7 +2595,7 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.35">
@@ -2610,7 +2606,7 @@
         <v>1</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D102" s="1">
         <v>1</v>
@@ -2619,7 +2615,7 @@
         <v>1.44</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.35">
@@ -2630,7 +2626,7 @@
         <v>1</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D103" s="1">
         <v>2</v>
@@ -2639,7 +2635,7 @@
         <v>1.46</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.35">
@@ -2650,7 +2646,7 @@
         <v>1</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D104" s="1">
         <v>3</v>
@@ -2659,7 +2655,7 @@
         <v>3.2</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.35">
@@ -2670,7 +2666,7 @@
         <v>1</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D105" s="1">
         <v>4</v>
@@ -2679,7 +2675,7 @@
         <v>1.06</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.35">
@@ -2690,7 +2686,7 @@
         <v>1</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D106" s="1">
         <v>5</v>
@@ -2699,7 +2695,7 @@
         <v>1.34</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.35">
@@ -2710,7 +2706,7 @@
         <v>1</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D107" s="1">
         <v>1</v>
@@ -2719,7 +2715,7 @@
         <v>1.48</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.35">
@@ -2730,7 +2726,7 @@
         <v>1</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D108" s="1">
         <v>2</v>
@@ -2739,7 +2735,7 @@
         <v>3.1</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.35">
@@ -2750,7 +2746,7 @@
         <v>1</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D109" s="1">
         <v>3</v>
@@ -2759,7 +2755,7 @@
         <v>3.11</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.35">
@@ -2770,7 +2766,7 @@
         <v>1</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D110" s="1">
         <v>4</v>
@@ -2779,7 +2775,7 @@
         <v>2.23</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.35">
@@ -2790,7 +2786,7 @@
         <v>1</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D111" s="1">
         <v>5</v>
@@ -2799,7 +2795,7 @@
         <v>3.46</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.35">
@@ -2810,7 +2806,7 @@
         <v>1</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D112" s="1">
         <v>1</v>
@@ -2819,7 +2815,7 @@
         <v>1.91</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.35">
@@ -2830,7 +2826,7 @@
         <v>1</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D113" s="1">
         <v>2</v>
@@ -2839,7 +2835,7 @@
         <v>1.55</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.35">
@@ -2850,7 +2846,7 @@
         <v>1</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D114" s="1">
         <v>3</v>
@@ -2859,7 +2855,7 @@
         <v>0.86</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.35">
@@ -2870,7 +2866,7 @@
         <v>1</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D115" s="1">
         <v>4</v>
@@ -2879,7 +2875,7 @@
         <v>1.17</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.35">
@@ -2890,7 +2886,7 @@
         <v>1</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D116" s="1">
         <v>5</v>
@@ -2899,7 +2895,7 @@
         <v>3.7</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.35">
@@ -2910,7 +2906,7 @@
         <v>1</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D117" s="1">
         <v>1</v>
@@ -2919,7 +2915,7 @@
         <v>2.39</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.35">
@@ -2930,7 +2926,7 @@
         <v>1</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D118" s="1">
         <v>2</v>
@@ -2939,7 +2935,7 @@
         <v>3.21</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.35">
@@ -2950,7 +2946,7 @@
         <v>1</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D119" s="1">
         <v>3</v>
@@ -2959,7 +2955,7 @@
         <v>1.3</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.35">
@@ -2970,7 +2966,7 @@
         <v>1</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D120" s="1">
         <v>4</v>
@@ -2979,7 +2975,7 @@
         <v>2.0499999999999998</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.35">
@@ -2990,7 +2986,7 @@
         <v>1</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D121" s="1">
         <v>5</v>
@@ -2999,7 +2995,7 @@
         <v>1.73</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.35">
@@ -3010,7 +3006,7 @@
         <v>2</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D122" s="1">
         <v>1</v>
@@ -3019,7 +3015,7 @@
         <v>0.95</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.35">
@@ -3030,7 +3026,7 @@
         <v>2</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D123" s="1">
         <v>2</v>
@@ -3039,7 +3035,7 @@
         <v>0.82</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.35">
@@ -3050,7 +3046,7 @@
         <v>2</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D124" s="1">
         <v>3</v>
@@ -3059,7 +3055,7 @@
         <v>1.32</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.35">
@@ -3070,7 +3066,7 @@
         <v>2</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D125" s="1">
         <v>4</v>
@@ -3079,7 +3075,7 @@
         <v>2.08</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.35">
@@ -3090,7 +3086,7 @@
         <v>2</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D126" s="1">
         <v>5</v>
@@ -3099,7 +3095,7 @@
         <v>1.92</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.35">
@@ -3110,7 +3106,7 @@
         <v>2</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D127" s="1">
         <v>1</v>
@@ -3119,7 +3115,7 @@
         <v>1.06</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.35">
@@ -3130,7 +3126,7 @@
         <v>2</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D128" s="1">
         <v>2</v>
@@ -3139,7 +3135,7 @@
         <v>1.24</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.35">
@@ -3150,7 +3146,7 @@
         <v>2</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D129" s="1">
         <v>3</v>
@@ -3159,7 +3155,7 @@
         <v>1.2</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.35">
@@ -3170,7 +3166,7 @@
         <v>2</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D130" s="1">
         <v>4</v>
@@ -3179,7 +3175,7 @@
         <v>1.02</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.35">
@@ -3190,7 +3186,7 @@
         <v>2</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D131" s="1">
         <v>5</v>
@@ -3199,7 +3195,7 @@
         <v>1.2</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.35">
@@ -3210,7 +3206,7 @@
         <v>2</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D132" s="1">
         <v>1</v>
@@ -3219,7 +3215,7 @@
         <v>0.98</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.35">
@@ -3230,7 +3226,7 @@
         <v>2</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D133" s="1">
         <v>2</v>
@@ -3239,7 +3235,7 @@
         <v>1.23</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.35">
@@ -3250,7 +3246,7 @@
         <v>2</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D134" s="1">
         <v>3</v>
@@ -3259,7 +3255,7 @@
         <v>1.38</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.35">
@@ -3270,7 +3266,7 @@
         <v>2</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D135" s="1">
         <v>4</v>
@@ -3279,7 +3275,7 @@
         <v>1.22</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.35">
@@ -3290,7 +3286,7 @@
         <v>2</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D136" s="1">
         <v>5</v>
@@ -3299,7 +3295,7 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.35">
@@ -3310,7 +3306,7 @@
         <v>2</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D137" s="1">
         <v>1</v>
@@ -3319,7 +3315,7 @@
         <v>4.63</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.35">
@@ -3330,7 +3326,7 @@
         <v>2</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D138" s="1">
         <v>2</v>
@@ -3339,7 +3335,7 @@
         <v>1.59</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.35">
@@ -3350,7 +3346,7 @@
         <v>2</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D139" s="1">
         <v>3</v>
@@ -3359,7 +3355,7 @@
         <v>2.92</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.35">
@@ -3370,7 +3366,7 @@
         <v>2</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D140" s="1">
         <v>4</v>
@@ -3379,7 +3375,7 @@
         <v>0.85</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.35">
@@ -3390,7 +3386,7 @@
         <v>2</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D141" s="1">
         <v>5</v>
@@ -3399,7 +3395,7 @@
         <v>1.1599999999999999</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.35">
@@ -3410,7 +3406,7 @@
         <v>3</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D142" s="1">
         <v>1</v>
@@ -3419,7 +3415,7 @@
         <v>1.03</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.35">
@@ -3430,7 +3426,7 @@
         <v>3</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D143" s="1">
         <v>2</v>
@@ -3439,7 +3435,7 @@
         <v>0.84</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.35">
@@ -3450,7 +3446,7 @@
         <v>3</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D144" s="1">
         <v>3</v>
@@ -3459,7 +3455,7 @@
         <v>1.85</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.35">
@@ -3470,7 +3466,7 @@
         <v>3</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D145" s="1">
         <v>4</v>
@@ -3479,7 +3475,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.35">
@@ -3490,7 +3486,7 @@
         <v>3</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D146" s="1">
         <v>5</v>
@@ -3499,7 +3495,7 @@
         <v>2.1</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.35">
@@ -3510,7 +3506,7 @@
         <v>3</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D147" s="1">
         <v>1</v>
@@ -3519,7 +3515,7 @@
         <v>0.67</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.35">
@@ -3530,7 +3526,7 @@
         <v>3</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D148" s="1">
         <v>2</v>
@@ -3539,7 +3535,7 @@
         <v>1.8</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.35">
@@ -3550,7 +3546,7 @@
         <v>3</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D149" s="1">
         <v>3</v>
@@ -3559,7 +3555,7 @@
         <v>6.1</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.35">
@@ -3570,7 +3566,7 @@
         <v>3</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D150" s="1">
         <v>4</v>
@@ -3579,7 +3575,7 @@
         <v>1.0900000000000001</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.35">
@@ -3590,7 +3586,7 @@
         <v>3</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D151" s="1">
         <v>5</v>
@@ -3599,7 +3595,7 @@
         <v>1.49</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.35">
@@ -3610,7 +3606,7 @@
         <v>3</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D152" s="1">
         <v>1</v>
@@ -3619,7 +3615,7 @@
         <v>1.1299999999999999</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.35">
@@ -3630,7 +3626,7 @@
         <v>3</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D153" s="1">
         <v>2</v>
@@ -3639,7 +3635,7 @@
         <v>1.19</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.35">
@@ -3650,7 +3646,7 @@
         <v>3</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D154" s="1">
         <v>3</v>
@@ -3659,7 +3655,7 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.35">
@@ -3670,7 +3666,7 @@
         <v>3</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D155" s="1">
         <v>4</v>
@@ -3679,7 +3675,7 @@
         <v>1.1200000000000001</v>
       </c>
       <c r="F155" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.35">
@@ -3690,7 +3686,7 @@
         <v>3</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D156" s="1">
         <v>5</v>
@@ -3699,7 +3695,7 @@
         <v>1.18</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.35">
@@ -3710,7 +3706,7 @@
         <v>3</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D157" s="1">
         <v>1</v>
@@ -3719,7 +3715,7 @@
         <v>1.76</v>
       </c>
       <c r="F157" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.35">
@@ -3730,7 +3726,7 @@
         <v>3</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D158" s="1">
         <v>2</v>
@@ -3739,7 +3735,7 @@
         <v>2.64</v>
       </c>
       <c r="F158" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.35">
@@ -3750,7 +3746,7 @@
         <v>3</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D159" s="1">
         <v>3</v>
@@ -3759,7 +3755,7 @@
         <v>0.47</v>
       </c>
       <c r="F159" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.35">
@@ -3770,7 +3766,7 @@
         <v>3</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D160" s="1">
         <v>4</v>
@@ -3779,7 +3775,7 @@
         <v>1.1599999999999999</v>
       </c>
       <c r="F160" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.35">
@@ -3790,7 +3786,7 @@
         <v>3</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D161" s="1">
         <v>5</v>
@@ -3799,7 +3795,7 @@
         <v>1.38</v>
       </c>
       <c r="F161" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.35">
@@ -3810,7 +3806,7 @@
         <v>4</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D162" s="1">
         <v>1</v>
@@ -3819,7 +3815,7 @@
         <v>0.25</v>
       </c>
       <c r="F162" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.35">
@@ -3830,7 +3826,7 @@
         <v>4</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D163" s="1">
         <v>2</v>
@@ -3839,7 +3835,7 @@
         <v>1.5</v>
       </c>
       <c r="F163" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.35">
@@ -3850,7 +3846,7 @@
         <v>4</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D164" s="1">
         <v>3</v>
@@ -3859,7 +3855,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="F164" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.35">
@@ -3870,7 +3866,7 @@
         <v>4</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D165" s="1">
         <v>4</v>
@@ -3879,7 +3875,7 @@
         <v>0.7</v>
       </c>
       <c r="F165" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.35">
@@ -3890,7 +3886,7 @@
         <v>4</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D166" s="1">
         <v>5</v>
@@ -3899,7 +3895,7 @@
         <v>1.1399999999999999</v>
       </c>
       <c r="F166" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.35">
@@ -3910,7 +3906,7 @@
         <v>4</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D167" s="1">
         <v>1</v>
@@ -3919,7 +3915,7 @@
         <v>1.64</v>
       </c>
       <c r="F167" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.35">
@@ -3930,7 +3926,7 @@
         <v>4</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D168" s="1">
         <v>2</v>
@@ -3939,7 +3935,7 @@
         <v>0.47</v>
       </c>
       <c r="F168" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.35">
@@ -3950,7 +3946,7 @@
         <v>4</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D169" s="1">
         <v>3</v>
@@ -3959,7 +3955,7 @@
         <v>0.42</v>
       </c>
       <c r="F169" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.35">
@@ -3970,7 +3966,7 @@
         <v>4</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D170" s="1">
         <v>4</v>
@@ -3979,7 +3975,7 @@
         <v>1.06</v>
       </c>
       <c r="F170" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.35">
@@ -3990,7 +3986,7 @@
         <v>4</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D171" s="1">
         <v>5</v>
@@ -3999,7 +3995,7 @@
         <v>0.95</v>
       </c>
       <c r="F171" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.35">
@@ -4010,7 +4006,7 @@
         <v>4</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D172" s="1">
         <v>1</v>
@@ -4019,7 +4015,7 @@
         <v>1.1299999999999999</v>
       </c>
       <c r="F172" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.35">
@@ -4030,7 +4026,7 @@
         <v>4</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D173" s="1">
         <v>2</v>
@@ -4039,7 +4035,7 @@
         <v>0.99</v>
       </c>
       <c r="F173" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.35">
@@ -4050,7 +4046,7 @@
         <v>4</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D174" s="1">
         <v>3</v>
@@ -4059,7 +4055,7 @@
         <v>0.56999999999999995</v>
       </c>
       <c r="F174" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.35">
@@ -4070,7 +4066,7 @@
         <v>4</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D175" s="1">
         <v>4</v>
@@ -4079,7 +4075,7 @@
         <v>1.61</v>
       </c>
       <c r="F175" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.35">
@@ -4090,7 +4086,7 @@
         <v>4</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D176" s="1">
         <v>5</v>
@@ -4099,7 +4095,7 @@
         <v>0.88</v>
       </c>
       <c r="F176" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.35">
@@ -4110,7 +4106,7 @@
         <v>4</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D177" s="1">
         <v>1</v>
@@ -4119,7 +4115,7 @@
         <v>1.78</v>
       </c>
       <c r="F177" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.35">
@@ -4130,7 +4126,7 @@
         <v>4</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D178" s="1">
         <v>2</v>
@@ -4139,7 +4135,7 @@
         <v>0.36</v>
       </c>
       <c r="F178" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.35">
@@ -4150,7 +4146,7 @@
         <v>4</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D179" s="1">
         <v>3</v>
@@ -4159,7 +4155,7 @@
         <v>1.95</v>
       </c>
       <c r="F179" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.35">
@@ -4170,7 +4166,7 @@
         <v>4</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D180" s="1">
         <v>4</v>
@@ -4179,7 +4175,7 @@
         <v>1.66</v>
       </c>
       <c r="F180" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.35">
@@ -4190,7 +4186,7 @@
         <v>4</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D181" s="1">
         <v>5</v>
@@ -4199,7 +4195,7 @@
         <v>0.8</v>
       </c>
       <c r="F181" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.35">
@@ -4210,7 +4206,7 @@
         <v>5</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D182" s="1">
         <v>1</v>
@@ -4219,7 +4215,7 @@
         <v>1.93</v>
       </c>
       <c r="F182" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.35">
@@ -4230,7 +4226,7 @@
         <v>5</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D183" s="1">
         <v>2</v>
@@ -4239,7 +4235,7 @@
         <v>1.45</v>
       </c>
       <c r="F183" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.35">
@@ -4250,7 +4246,7 @@
         <v>5</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D184" s="1">
         <v>3</v>
@@ -4259,7 +4255,7 @@
         <v>0.79</v>
       </c>
       <c r="F184" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.35">
@@ -4270,7 +4266,7 @@
         <v>5</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D185" s="1">
         <v>4</v>
@@ -4279,7 +4275,7 @@
         <v>0.74</v>
       </c>
       <c r="F185" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.35">
@@ -4290,7 +4286,7 @@
         <v>5</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D186" s="1">
         <v>5</v>
@@ -4299,7 +4295,7 @@
         <v>0.74</v>
       </c>
       <c r="F186" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.35">
@@ -4310,7 +4306,7 @@
         <v>5</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D187" s="1">
         <v>1</v>
@@ -4319,7 +4315,7 @@
         <v>0.72</v>
       </c>
       <c r="F187" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.35">
@@ -4330,7 +4326,7 @@
         <v>5</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D188" s="1">
         <v>2</v>
@@ -4339,7 +4335,7 @@
         <v>2.04</v>
       </c>
       <c r="F188" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.35">
@@ -4350,7 +4346,7 @@
         <v>5</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D189" s="1">
         <v>3</v>
@@ -4359,7 +4355,7 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="F189" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.35">
@@ -4370,7 +4366,7 @@
         <v>5</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D190" s="1">
         <v>4</v>
@@ -4379,7 +4375,7 @@
         <v>0.3</v>
       </c>
       <c r="F190" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.35">
@@ -4390,7 +4386,7 @@
         <v>5</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D191" s="1">
         <v>5</v>
@@ -4399,7 +4395,7 @@
         <v>0.71</v>
       </c>
       <c r="F191" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.35">
@@ -4410,7 +4406,7 @@
         <v>5</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D192" s="1">
         <v>1</v>
@@ -4419,7 +4415,7 @@
         <v>1.49</v>
       </c>
       <c r="F192" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.35">
@@ -4430,7 +4426,7 @@
         <v>5</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D193" s="1">
         <v>2</v>
@@ -4439,7 +4435,7 @@
         <v>0.73</v>
       </c>
       <c r="F193" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.35">
@@ -4450,7 +4446,7 @@
         <v>5</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D194" s="1">
         <v>3</v>
@@ -4459,7 +4455,7 @@
         <v>0.67</v>
       </c>
       <c r="F194" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.35">
@@ -4470,7 +4466,7 @@
         <v>5</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D195" s="1">
         <v>4</v>
@@ -4479,7 +4475,7 @@
         <v>0.8</v>
       </c>
       <c r="F195" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.35">
@@ -4490,7 +4486,7 @@
         <v>5</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D196" s="1">
         <v>5</v>
@@ -4499,7 +4495,7 @@
         <v>0.4</v>
       </c>
       <c r="F196" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.35">
@@ -4510,7 +4506,7 @@
         <v>5</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D197" s="1">
         <v>1</v>
@@ -4519,7 +4515,7 @@
         <v>0.54</v>
       </c>
       <c r="F197" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.35">
@@ -4530,7 +4526,7 @@
         <v>5</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D198" s="1">
         <v>2</v>
@@ -4539,7 +4535,7 @@
         <v>0.7</v>
       </c>
       <c r="F198" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.35">
@@ -4550,7 +4546,7 @@
         <v>5</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D199" s="1">
         <v>3</v>
@@ -4559,7 +4555,7 @@
         <v>0.68</v>
       </c>
       <c r="F199" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.35">
@@ -4570,7 +4566,7 @@
         <v>5</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D200" s="1">
         <v>4</v>
@@ -4579,7 +4575,7 @@
         <v>0.84</v>
       </c>
       <c r="F200" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.35">
@@ -4590,7 +4586,7 @@
         <v>5</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D201" s="1">
         <v>5</v>
@@ -4599,7 +4595,7 @@
         <v>1.23</v>
       </c>
       <c r="F201" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.35">
@@ -4610,7 +4606,7 @@
         <v>1</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D202" s="1">
         <v>1</v>
@@ -4628,7 +4624,7 @@
         <v>1</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D203" s="1">
         <v>2</v>
@@ -4646,7 +4642,7 @@
         <v>1</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D204" s="1">
         <v>3</v>
@@ -4664,7 +4660,7 @@
         <v>1</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D205" s="1">
         <v>4</v>
@@ -4682,7 +4678,7 @@
         <v>1</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D206" s="1">
         <v>5</v>
@@ -4700,7 +4696,7 @@
         <v>1</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D207" s="1">
         <v>6</v>
@@ -4718,7 +4714,7 @@
         <v>1</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D208" s="1">
         <v>7</v>
@@ -4736,7 +4732,7 @@
         <v>1</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D209" s="1">
         <v>8</v>
@@ -4754,7 +4750,7 @@
         <v>1</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D210" s="1">
         <v>9</v>
@@ -4772,7 +4768,7 @@
         <v>1</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D211" s="1">
         <v>10</v>
@@ -4790,7 +4786,7 @@
         <v>1</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D212" s="1">
         <v>11</v>
@@ -4808,7 +4804,7 @@
         <v>1</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D213" s="1">
         <v>12</v>
@@ -4826,7 +4822,7 @@
         <v>1</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D214" s="1">
         <v>13</v>
@@ -4844,7 +4840,7 @@
         <v>1</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D215" s="1">
         <v>14</v>
@@ -4862,7 +4858,7 @@
         <v>1</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D216" s="1">
         <v>15</v>
@@ -4880,7 +4876,7 @@
         <v>1</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D217" s="1">
         <v>16</v>
@@ -4898,7 +4894,7 @@
         <v>1</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D218" s="1">
         <v>17</v>
@@ -4916,7 +4912,7 @@
         <v>1</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D219" s="1">
         <v>18</v>
@@ -4934,7 +4930,7 @@
         <v>1</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D220" s="1">
         <v>19</v>
@@ -4952,7 +4948,7 @@
         <v>1</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D221" s="1">
         <v>20</v>
@@ -4970,7 +4966,7 @@
         <v>1</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D222" s="1">
         <v>1</v>
@@ -4988,7 +4984,7 @@
         <v>1</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D223" s="1">
         <v>2</v>
@@ -5006,7 +5002,7 @@
         <v>1</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D224" s="1">
         <v>3</v>
@@ -5024,7 +5020,7 @@
         <v>1</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D225" s="1">
         <v>4</v>
@@ -5042,7 +5038,7 @@
         <v>1</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D226" s="1">
         <v>5</v>
@@ -5060,7 +5056,7 @@
         <v>1</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D227" s="1">
         <v>6</v>
@@ -5078,7 +5074,7 @@
         <v>1</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D228" s="1">
         <v>7</v>
@@ -5096,7 +5092,7 @@
         <v>1</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D229" s="1">
         <v>8</v>
@@ -5114,7 +5110,7 @@
         <v>1</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D230" s="1">
         <v>9</v>
@@ -5132,7 +5128,7 @@
         <v>1</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D231" s="1">
         <v>10</v>
@@ -5150,7 +5146,7 @@
         <v>1</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D232" s="1">
         <v>11</v>
@@ -5168,7 +5164,7 @@
         <v>1</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D233" s="1">
         <v>12</v>
@@ -5186,7 +5182,7 @@
         <v>1</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D234" s="1">
         <v>13</v>
@@ -5204,7 +5200,7 @@
         <v>1</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D235" s="1">
         <v>14</v>
@@ -5222,7 +5218,7 @@
         <v>1</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D236" s="1">
         <v>15</v>
@@ -5240,7 +5236,7 @@
         <v>1</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D237" s="1">
         <v>16</v>
@@ -5258,7 +5254,7 @@
         <v>1</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D238" s="1">
         <v>17</v>
@@ -5276,7 +5272,7 @@
         <v>1</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D239" s="1">
         <v>18</v>
@@ -5294,7 +5290,7 @@
         <v>1</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D240" s="1">
         <v>19</v>
@@ -5312,7 +5308,7 @@
         <v>1</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D241" s="1">
         <v>20</v>
@@ -5330,7 +5326,7 @@
         <v>1</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D242" s="1">
         <v>21</v>
@@ -5348,7 +5344,7 @@
         <v>1</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D243" s="1">
         <v>22</v>
@@ -5366,7 +5362,7 @@
         <v>1</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D244" s="1">
         <v>23</v>
@@ -5384,7 +5380,7 @@
         <v>1</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D245" s="1">
         <v>24</v>
@@ -5402,7 +5398,7 @@
         <v>1</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D246" s="1">
         <v>25</v>
@@ -5420,7 +5416,7 @@
         <v>1</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D247" s="1">
         <v>1</v>
@@ -5438,7 +5434,7 @@
         <v>1</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D248" s="1">
         <v>2</v>
@@ -5456,7 +5452,7 @@
         <v>1</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D249" s="1">
         <v>3</v>
@@ -5474,7 +5470,7 @@
         <v>1</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D250" s="1">
         <v>4</v>
@@ -5492,7 +5488,7 @@
         <v>1</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D251" s="1">
         <v>5</v>
@@ -5510,7 +5506,7 @@
         <v>1</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D252" s="1">
         <v>6</v>
@@ -5528,7 +5524,7 @@
         <v>1</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D253" s="1">
         <v>7</v>
@@ -5546,7 +5542,7 @@
         <v>1</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D254" s="1">
         <v>8</v>
@@ -5564,7 +5560,7 @@
         <v>1</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D255" s="1">
         <v>9</v>
@@ -5582,7 +5578,7 @@
         <v>1</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D256" s="1">
         <v>10</v>
@@ -5600,7 +5596,7 @@
         <v>1</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D257" s="1">
         <v>11</v>
@@ -5618,7 +5614,7 @@
         <v>1</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D258" s="1">
         <v>12</v>
@@ -5636,7 +5632,7 @@
         <v>1</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D259" s="1">
         <v>13</v>
@@ -5654,7 +5650,7 @@
         <v>1</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D260" s="1">
         <v>14</v>
@@ -5672,7 +5668,7 @@
         <v>1</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D261" s="1">
         <v>15</v>
@@ -5690,7 +5686,7 @@
         <v>1</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D262" s="1">
         <v>16</v>
@@ -5708,7 +5704,7 @@
         <v>1</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D263" s="1">
         <v>17</v>
@@ -5726,7 +5722,7 @@
         <v>1</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D264" s="1">
         <v>18</v>
@@ -5744,7 +5740,7 @@
         <v>1</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D265" s="1">
         <v>19</v>
@@ -5762,7 +5758,7 @@
         <v>1</v>
       </c>
       <c r="C266" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D266" s="1">
         <v>20</v>
@@ -5780,7 +5776,7 @@
         <v>1</v>
       </c>
       <c r="C267" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D267" s="1">
         <v>1</v>
@@ -5798,7 +5794,7 @@
         <v>1</v>
       </c>
       <c r="C268" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D268" s="1">
         <v>2</v>
@@ -5816,7 +5812,7 @@
         <v>1</v>
       </c>
       <c r="C269" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D269" s="1">
         <v>3</v>
@@ -5834,7 +5830,7 @@
         <v>1</v>
       </c>
       <c r="C270" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D270" s="1">
         <v>4</v>
@@ -5852,7 +5848,7 @@
         <v>1</v>
       </c>
       <c r="C271" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D271" s="1">
         <v>5</v>
@@ -5870,7 +5866,7 @@
         <v>1</v>
       </c>
       <c r="C272" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D272" s="1">
         <v>6</v>
@@ -5888,7 +5884,7 @@
         <v>1</v>
       </c>
       <c r="C273" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D273" s="1">
         <v>7</v>
@@ -5906,7 +5902,7 @@
         <v>1</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D274" s="1">
         <v>8</v>
@@ -5924,7 +5920,7 @@
         <v>1</v>
       </c>
       <c r="C275" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D275" s="1">
         <v>9</v>
@@ -5942,7 +5938,7 @@
         <v>1</v>
       </c>
       <c r="C276" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D276" s="1">
         <v>10</v>
@@ -5960,7 +5956,7 @@
         <v>1</v>
       </c>
       <c r="C277" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D277" s="1">
         <v>11</v>
@@ -5978,7 +5974,7 @@
         <v>1</v>
       </c>
       <c r="C278" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D278" s="1">
         <v>12</v>
@@ -5996,7 +5992,7 @@
         <v>1</v>
       </c>
       <c r="C279" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D279" s="1">
         <v>13</v>
@@ -6014,7 +6010,7 @@
         <v>1</v>
       </c>
       <c r="C280" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D280" s="1">
         <v>14</v>
@@ -6032,7 +6028,7 @@
         <v>1</v>
       </c>
       <c r="C281" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D281" s="1">
         <v>15</v>
@@ -6050,7 +6046,7 @@
         <v>1</v>
       </c>
       <c r="C282" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D282" s="1">
         <v>16</v>
@@ -6068,7 +6064,7 @@
         <v>1</v>
       </c>
       <c r="C283" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D283" s="1">
         <v>17</v>
@@ -6086,7 +6082,7 @@
         <v>1</v>
       </c>
       <c r="C284" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D284" s="1">
         <v>18</v>
@@ -6104,7 +6100,7 @@
         <v>1</v>
       </c>
       <c r="C285" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D285" s="1">
         <v>19</v>
@@ -6122,7 +6118,7 @@
         <v>1</v>
       </c>
       <c r="C286" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D286" s="1">
         <v>20</v>
@@ -6140,7 +6136,7 @@
         <v>1</v>
       </c>
       <c r="C287" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D287" s="1">
         <v>21</v>
@@ -6158,7 +6154,7 @@
         <v>1</v>
       </c>
       <c r="C288" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D288" s="1">
         <v>22</v>
@@ -6176,7 +6172,7 @@
         <v>1</v>
       </c>
       <c r="C289" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D289" s="1">
         <v>23</v>
@@ -6194,7 +6190,7 @@
         <v>1</v>
       </c>
       <c r="C290" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D290" s="1">
         <v>24</v>
@@ -6212,7 +6208,7 @@
         <v>1</v>
       </c>
       <c r="C291" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D291" s="1">
         <v>25</v>
@@ -6230,7 +6226,7 @@
         <v>1</v>
       </c>
       <c r="C292" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D292" s="1">
         <v>26</v>
@@ -6248,7 +6244,7 @@
         <v>1</v>
       </c>
       <c r="C293" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D293" s="1">
         <v>27</v>
@@ -6266,7 +6262,7 @@
         <v>1</v>
       </c>
       <c r="C294" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D294" s="1">
         <v>28</v>
@@ -6284,7 +6280,7 @@
         <v>1</v>
       </c>
       <c r="C295" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D295" s="1">
         <v>29</v>
@@ -6302,7 +6298,7 @@
         <v>2</v>
       </c>
       <c r="C296" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D296" s="1">
         <v>1</v>
@@ -6320,7 +6316,7 @@
         <v>2</v>
       </c>
       <c r="C297" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D297" s="1">
         <v>2</v>
@@ -6338,7 +6334,7 @@
         <v>2</v>
       </c>
       <c r="C298" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D298" s="1">
         <v>3</v>
@@ -6356,7 +6352,7 @@
         <v>2</v>
       </c>
       <c r="C299" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D299" s="1">
         <v>4</v>
@@ -6374,7 +6370,7 @@
         <v>2</v>
       </c>
       <c r="C300" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D300" s="1">
         <v>5</v>
@@ -6392,7 +6388,7 @@
         <v>2</v>
       </c>
       <c r="C301" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D301" s="1">
         <v>6</v>
@@ -6410,7 +6406,7 @@
         <v>2</v>
       </c>
       <c r="C302" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D302" s="1">
         <v>7</v>
@@ -6428,7 +6424,7 @@
         <v>2</v>
       </c>
       <c r="C303" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D303" s="1">
         <v>8</v>
@@ -6446,7 +6442,7 @@
         <v>2</v>
       </c>
       <c r="C304" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D304" s="1">
         <v>9</v>
@@ -6464,7 +6460,7 @@
         <v>2</v>
       </c>
       <c r="C305" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D305" s="1">
         <v>10</v>
@@ -6482,7 +6478,7 @@
         <v>2</v>
       </c>
       <c r="C306" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D306" s="1">
         <v>11</v>
@@ -6500,7 +6496,7 @@
         <v>2</v>
       </c>
       <c r="C307" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D307" s="1">
         <v>12</v>
@@ -6518,7 +6514,7 @@
         <v>2</v>
       </c>
       <c r="C308" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D308" s="1">
         <v>13</v>
@@ -6536,7 +6532,7 @@
         <v>2</v>
       </c>
       <c r="C309" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D309" s="1">
         <v>14</v>
@@ -6554,7 +6550,7 @@
         <v>2</v>
       </c>
       <c r="C310" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D310" s="1">
         <v>15</v>
@@ -6572,7 +6568,7 @@
         <v>2</v>
       </c>
       <c r="C311" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D311" s="1">
         <v>16</v>
@@ -6590,7 +6586,7 @@
         <v>2</v>
       </c>
       <c r="C312" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D312" s="1">
         <v>17</v>
@@ -6608,7 +6604,7 @@
         <v>2</v>
       </c>
       <c r="C313" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D313" s="1">
         <v>18</v>
@@ -6626,7 +6622,7 @@
         <v>2</v>
       </c>
       <c r="C314" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D314" s="1">
         <v>19</v>
@@ -6644,7 +6640,7 @@
         <v>2</v>
       </c>
       <c r="C315" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D315" s="1">
         <v>20</v>
@@ -6662,7 +6658,7 @@
         <v>2</v>
       </c>
       <c r="C316" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D316" s="1">
         <v>21</v>
@@ -6680,7 +6676,7 @@
         <v>2</v>
       </c>
       <c r="C317" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D317" s="1">
         <v>22</v>
@@ -6698,7 +6694,7 @@
         <v>2</v>
       </c>
       <c r="C318" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D318" s="1">
         <v>23</v>
@@ -6716,7 +6712,7 @@
         <v>2</v>
       </c>
       <c r="C319" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D319" s="1">
         <v>24</v>
@@ -6734,7 +6730,7 @@
         <v>2</v>
       </c>
       <c r="C320" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D320" s="1">
         <v>25</v>
@@ -6752,7 +6748,7 @@
         <v>2</v>
       </c>
       <c r="C321" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D321" s="1">
         <v>26</v>
@@ -6770,7 +6766,7 @@
         <v>2</v>
       </c>
       <c r="C322" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D322" s="1">
         <v>27</v>
@@ -6788,7 +6784,7 @@
         <v>2</v>
       </c>
       <c r="C323" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D323" s="1">
         <v>1</v>
@@ -6806,7 +6802,7 @@
         <v>2</v>
       </c>
       <c r="C324" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D324" s="1">
         <v>2</v>
@@ -6824,7 +6820,7 @@
         <v>2</v>
       </c>
       <c r="C325" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D325" s="1">
         <v>3</v>
@@ -6842,7 +6838,7 @@
         <v>2</v>
       </c>
       <c r="C326" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D326" s="1">
         <v>4</v>
@@ -6860,7 +6856,7 @@
         <v>2</v>
       </c>
       <c r="C327" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D327" s="1">
         <v>5</v>
@@ -6878,7 +6874,7 @@
         <v>2</v>
       </c>
       <c r="C328" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D328" s="1">
         <v>6</v>
@@ -6896,7 +6892,7 @@
         <v>2</v>
       </c>
       <c r="C329" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D329" s="1">
         <v>7</v>
@@ -6914,7 +6910,7 @@
         <v>2</v>
       </c>
       <c r="C330" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D330" s="1">
         <v>8</v>
@@ -6932,7 +6928,7 @@
         <v>2</v>
       </c>
       <c r="C331" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D331" s="1">
         <v>9</v>
@@ -6950,7 +6946,7 @@
         <v>2</v>
       </c>
       <c r="C332" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D332" s="1">
         <v>10</v>
@@ -6968,7 +6964,7 @@
         <v>2</v>
       </c>
       <c r="C333" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D333" s="1">
         <v>11</v>
@@ -6986,7 +6982,7 @@
         <v>2</v>
       </c>
       <c r="C334" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D334" s="1">
         <v>12</v>
@@ -7004,7 +7000,7 @@
         <v>2</v>
       </c>
       <c r="C335" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D335" s="1">
         <v>13</v>
@@ -7022,7 +7018,7 @@
         <v>2</v>
       </c>
       <c r="C336" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D336" s="1">
         <v>14</v>
@@ -7040,7 +7036,7 @@
         <v>2</v>
       </c>
       <c r="C337" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D337" s="1">
         <v>15</v>
@@ -7058,7 +7054,7 @@
         <v>2</v>
       </c>
       <c r="C338" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D338" s="1">
         <v>16</v>
@@ -7076,7 +7072,7 @@
         <v>2</v>
       </c>
       <c r="C339" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D339" s="1">
         <v>17</v>
@@ -7094,7 +7090,7 @@
         <v>2</v>
       </c>
       <c r="C340" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D340" s="1">
         <v>18</v>
@@ -7112,7 +7108,7 @@
         <v>2</v>
       </c>
       <c r="C341" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D341" s="1">
         <v>19</v>
@@ -7130,7 +7126,7 @@
         <v>2</v>
       </c>
       <c r="C342" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D342" s="1">
         <v>20</v>
@@ -7148,7 +7144,7 @@
         <v>2</v>
       </c>
       <c r="C343" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D343" s="1">
         <v>21</v>
@@ -7166,7 +7162,7 @@
         <v>2</v>
       </c>
       <c r="C344" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D344" s="1">
         <v>22</v>
@@ -7184,7 +7180,7 @@
         <v>2</v>
       </c>
       <c r="C345" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D345" s="1">
         <v>23</v>
@@ -7202,7 +7198,7 @@
         <v>2</v>
       </c>
       <c r="C346" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D346" s="1">
         <v>24</v>
@@ -7220,7 +7216,7 @@
         <v>2</v>
       </c>
       <c r="C347" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D347" s="1">
         <v>1</v>
@@ -7238,7 +7234,7 @@
         <v>2</v>
       </c>
       <c r="C348" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D348" s="1">
         <v>2</v>
@@ -7256,7 +7252,7 @@
         <v>2</v>
       </c>
       <c r="C349" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D349" s="1">
         <v>3</v>
@@ -7274,7 +7270,7 @@
         <v>2</v>
       </c>
       <c r="C350" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D350" s="1">
         <v>4</v>
@@ -7292,7 +7288,7 @@
         <v>2</v>
       </c>
       <c r="C351" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D351" s="1">
         <v>5</v>
@@ -7310,7 +7306,7 @@
         <v>2</v>
       </c>
       <c r="C352" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D352" s="1">
         <v>6</v>
@@ -7328,7 +7324,7 @@
         <v>2</v>
       </c>
       <c r="C353" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D353" s="1">
         <v>7</v>
@@ -7346,7 +7342,7 @@
         <v>2</v>
       </c>
       <c r="C354" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D354" s="1">
         <v>8</v>
@@ -7364,7 +7360,7 @@
         <v>2</v>
       </c>
       <c r="C355" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D355" s="1">
         <v>9</v>
@@ -7382,7 +7378,7 @@
         <v>2</v>
       </c>
       <c r="C356" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D356" s="1">
         <v>10</v>
@@ -7400,7 +7396,7 @@
         <v>2</v>
       </c>
       <c r="C357" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D357" s="1">
         <v>11</v>
@@ -7418,7 +7414,7 @@
         <v>2</v>
       </c>
       <c r="C358" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D358" s="1">
         <v>12</v>
@@ -7436,7 +7432,7 @@
         <v>2</v>
       </c>
       <c r="C359" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D359" s="1">
         <v>13</v>
@@ -7454,7 +7450,7 @@
         <v>2</v>
       </c>
       <c r="C360" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D360" s="1">
         <v>14</v>
@@ -7472,7 +7468,7 @@
         <v>2</v>
       </c>
       <c r="C361" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D361" s="1">
         <v>15</v>
@@ -7490,7 +7486,7 @@
         <v>2</v>
       </c>
       <c r="C362" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D362" s="1">
         <v>16</v>
@@ -7508,7 +7504,7 @@
         <v>2</v>
       </c>
       <c r="C363" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D363" s="1">
         <v>17</v>
@@ -7526,7 +7522,7 @@
         <v>2</v>
       </c>
       <c r="C364" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D364" s="1">
         <v>18</v>
@@ -7544,7 +7540,7 @@
         <v>2</v>
       </c>
       <c r="C365" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D365" s="1">
         <v>19</v>
@@ -7562,7 +7558,7 @@
         <v>2</v>
       </c>
       <c r="C366" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D366" s="1">
         <v>20</v>
@@ -7580,7 +7576,7 @@
         <v>2</v>
       </c>
       <c r="C367" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D367" s="1">
         <v>21</v>
@@ -7598,7 +7594,7 @@
         <v>2</v>
       </c>
       <c r="C368" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D368" s="1">
         <v>22</v>
@@ -7616,7 +7612,7 @@
         <v>2</v>
       </c>
       <c r="C369" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D369" s="1">
         <v>1</v>
@@ -7634,7 +7630,7 @@
         <v>2</v>
       </c>
       <c r="C370" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D370" s="1">
         <v>2</v>
@@ -7652,7 +7648,7 @@
         <v>2</v>
       </c>
       <c r="C371" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D371" s="1">
         <v>3</v>
@@ -7670,7 +7666,7 @@
         <v>2</v>
       </c>
       <c r="C372" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D372" s="1">
         <v>4</v>
@@ -7688,7 +7684,7 @@
         <v>2</v>
       </c>
       <c r="C373" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D373" s="1">
         <v>5</v>
@@ -7706,7 +7702,7 @@
         <v>2</v>
       </c>
       <c r="C374" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D374" s="1">
         <v>6</v>
@@ -7724,7 +7720,7 @@
         <v>2</v>
       </c>
       <c r="C375" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D375" s="1">
         <v>7</v>
@@ -7742,7 +7738,7 @@
         <v>2</v>
       </c>
       <c r="C376" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D376" s="1">
         <v>8</v>
@@ -7760,7 +7756,7 @@
         <v>2</v>
       </c>
       <c r="C377" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D377" s="1">
         <v>9</v>
@@ -7778,7 +7774,7 @@
         <v>2</v>
       </c>
       <c r="C378" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D378" s="1">
         <v>10</v>
@@ -7796,7 +7792,7 @@
         <v>2</v>
       </c>
       <c r="C379" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D379" s="1">
         <v>11</v>
@@ -7814,7 +7810,7 @@
         <v>2</v>
       </c>
       <c r="C380" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D380" s="1">
         <v>12</v>
@@ -7832,7 +7828,7 @@
         <v>2</v>
       </c>
       <c r="C381" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D381" s="1">
         <v>13</v>
@@ -7850,7 +7846,7 @@
         <v>2</v>
       </c>
       <c r="C382" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D382" s="1">
         <v>14</v>
@@ -7868,7 +7864,7 @@
         <v>2</v>
       </c>
       <c r="C383" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D383" s="1">
         <v>15</v>
@@ -7886,7 +7882,7 @@
         <v>2</v>
       </c>
       <c r="C384" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D384" s="1">
         <v>16</v>
@@ -7904,7 +7900,7 @@
         <v>2</v>
       </c>
       <c r="C385" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D385" s="1">
         <v>17</v>
@@ -7922,7 +7918,7 @@
         <v>2</v>
       </c>
       <c r="C386" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D386" s="1">
         <v>18</v>
@@ -7940,7 +7936,7 @@
         <v>2</v>
       </c>
       <c r="C387" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D387" s="1">
         <v>19</v>
@@ -7958,7 +7954,7 @@
         <v>2</v>
       </c>
       <c r="C388" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D388" s="1">
         <v>20</v>
@@ -7976,7 +7972,7 @@
         <v>2</v>
       </c>
       <c r="C389" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D389" s="1">
         <v>21</v>
@@ -7994,7 +7990,7 @@
         <v>2</v>
       </c>
       <c r="C390" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D390" s="1">
         <v>22</v>
@@ -8012,7 +8008,7 @@
         <v>2</v>
       </c>
       <c r="C391" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D391" s="1">
         <v>23</v>
@@ -8030,7 +8026,7 @@
         <v>2</v>
       </c>
       <c r="C392" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D392" s="1">
         <v>24</v>
@@ -8048,7 +8044,7 @@
         <v>2</v>
       </c>
       <c r="C393" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D393" s="1">
         <v>25</v>
@@ -8066,7 +8062,7 @@
         <v>2</v>
       </c>
       <c r="C394" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D394" s="1">
         <v>26</v>
@@ -8084,7 +8080,7 @@
         <v>3</v>
       </c>
       <c r="C395" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D395" s="1">
         <v>1</v>
@@ -8102,7 +8098,7 @@
         <v>3</v>
       </c>
       <c r="C396" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D396" s="1">
         <v>2</v>
@@ -8120,7 +8116,7 @@
         <v>3</v>
       </c>
       <c r="C397" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D397" s="1">
         <v>3</v>
@@ -8138,7 +8134,7 @@
         <v>3</v>
       </c>
       <c r="C398" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D398" s="1">
         <v>4</v>
@@ -8156,7 +8152,7 @@
         <v>3</v>
       </c>
       <c r="C399" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D399" s="1">
         <v>5</v>
@@ -8174,7 +8170,7 @@
         <v>3</v>
       </c>
       <c r="C400" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D400" s="1">
         <v>6</v>
@@ -8192,7 +8188,7 @@
         <v>3</v>
       </c>
       <c r="C401" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D401" s="1">
         <v>7</v>
@@ -8210,7 +8206,7 @@
         <v>3</v>
       </c>
       <c r="C402" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D402" s="1">
         <v>8</v>
@@ -8228,7 +8224,7 @@
         <v>3</v>
       </c>
       <c r="C403" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D403" s="1">
         <v>9</v>
@@ -8246,7 +8242,7 @@
         <v>3</v>
       </c>
       <c r="C404" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D404" s="1">
         <v>10</v>
@@ -8264,7 +8260,7 @@
         <v>3</v>
       </c>
       <c r="C405" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D405" s="1">
         <v>11</v>
@@ -8282,7 +8278,7 @@
         <v>3</v>
       </c>
       <c r="C406" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D406" s="1">
         <v>12</v>
@@ -8300,7 +8296,7 @@
         <v>3</v>
       </c>
       <c r="C407" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D407" s="1">
         <v>13</v>
@@ -8318,7 +8314,7 @@
         <v>3</v>
       </c>
       <c r="C408" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D408" s="1">
         <v>14</v>
@@ -8336,7 +8332,7 @@
         <v>3</v>
       </c>
       <c r="C409" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D409" s="1">
         <v>15</v>
@@ -8354,7 +8350,7 @@
         <v>3</v>
       </c>
       <c r="C410" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D410" s="1">
         <v>16</v>
@@ -8372,7 +8368,7 @@
         <v>3</v>
       </c>
       <c r="C411" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D411" s="1">
         <v>17</v>
@@ -8390,7 +8386,7 @@
         <v>3</v>
       </c>
       <c r="C412" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D412" s="1">
         <v>18</v>
@@ -8408,7 +8404,7 @@
         <v>3</v>
       </c>
       <c r="C413" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D413" s="1">
         <v>19</v>
@@ -8426,7 +8422,7 @@
         <v>3</v>
       </c>
       <c r="C414" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D414" s="1">
         <v>1</v>
@@ -8444,7 +8440,7 @@
         <v>3</v>
       </c>
       <c r="C415" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D415" s="1">
         <v>2</v>
@@ -8462,7 +8458,7 @@
         <v>3</v>
       </c>
       <c r="C416" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D416" s="1">
         <v>3</v>
@@ -8480,7 +8476,7 @@
         <v>3</v>
       </c>
       <c r="C417" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D417" s="1">
         <v>4</v>
@@ -8498,7 +8494,7 @@
         <v>3</v>
       </c>
       <c r="C418" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D418" s="1">
         <v>5</v>
@@ -8516,7 +8512,7 @@
         <v>3</v>
       </c>
       <c r="C419" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D419" s="1">
         <v>6</v>
@@ -8534,7 +8530,7 @@
         <v>3</v>
       </c>
       <c r="C420" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D420" s="1">
         <v>7</v>
@@ -8552,7 +8548,7 @@
         <v>3</v>
       </c>
       <c r="C421" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D421" s="1">
         <v>8</v>
@@ -8570,7 +8566,7 @@
         <v>3</v>
       </c>
       <c r="C422" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D422" s="1">
         <v>9</v>
@@ -8588,7 +8584,7 @@
         <v>3</v>
       </c>
       <c r="C423" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D423" s="1">
         <v>10</v>
@@ -8606,7 +8602,7 @@
         <v>3</v>
       </c>
       <c r="C424" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D424" s="1">
         <v>11</v>
@@ -8624,7 +8620,7 @@
         <v>3</v>
       </c>
       <c r="C425" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D425" s="1">
         <v>12</v>
@@ -8642,7 +8638,7 @@
         <v>3</v>
       </c>
       <c r="C426" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D426" s="1">
         <v>13</v>
@@ -8660,7 +8656,7 @@
         <v>3</v>
       </c>
       <c r="C427" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D427" s="1">
         <v>14</v>
@@ -8678,7 +8674,7 @@
         <v>3</v>
       </c>
       <c r="C428" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D428" s="1">
         <v>15</v>
@@ -8696,7 +8692,7 @@
         <v>3</v>
       </c>
       <c r="C429" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D429" s="1">
         <v>16</v>
@@ -8714,7 +8710,7 @@
         <v>3</v>
       </c>
       <c r="C430" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D430" s="1">
         <v>17</v>
@@ -8732,7 +8728,7 @@
         <v>3</v>
       </c>
       <c r="C431" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D431" s="1">
         <v>18</v>
@@ -8750,7 +8746,7 @@
         <v>3</v>
       </c>
       <c r="C432" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D432" s="1">
         <v>19</v>
@@ -8768,7 +8764,7 @@
         <v>3</v>
       </c>
       <c r="C433" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D433" s="1">
         <v>20</v>
@@ -8786,7 +8782,7 @@
         <v>3</v>
       </c>
       <c r="C434" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D434" s="1">
         <v>21</v>
@@ -8804,7 +8800,7 @@
         <v>3</v>
       </c>
       <c r="C435" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D435" s="1">
         <v>22</v>
@@ -8822,7 +8818,7 @@
         <v>3</v>
       </c>
       <c r="C436" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D436" s="1">
         <v>23</v>
@@ -8840,7 +8836,7 @@
         <v>3</v>
       </c>
       <c r="C437" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D437" s="1">
         <v>1</v>
@@ -8858,7 +8854,7 @@
         <v>3</v>
       </c>
       <c r="C438" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D438" s="1">
         <v>2</v>
@@ -8876,7 +8872,7 @@
         <v>3</v>
       </c>
       <c r="C439" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D439" s="1">
         <v>3</v>
@@ -8894,7 +8890,7 @@
         <v>3</v>
       </c>
       <c r="C440" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D440" s="1">
         <v>4</v>
@@ -8912,7 +8908,7 @@
         <v>3</v>
       </c>
       <c r="C441" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D441" s="1">
         <v>5</v>
@@ -8930,7 +8926,7 @@
         <v>3</v>
       </c>
       <c r="C442" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D442" s="1">
         <v>6</v>
@@ -8948,7 +8944,7 @@
         <v>3</v>
       </c>
       <c r="C443" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D443" s="1">
         <v>7</v>
@@ -8966,7 +8962,7 @@
         <v>3</v>
       </c>
       <c r="C444" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D444" s="1">
         <v>8</v>
@@ -8984,7 +8980,7 @@
         <v>3</v>
       </c>
       <c r="C445" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D445" s="1">
         <v>9</v>
@@ -9002,7 +8998,7 @@
         <v>3</v>
       </c>
       <c r="C446" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D446" s="1">
         <v>10</v>
@@ -9020,7 +9016,7 @@
         <v>3</v>
       </c>
       <c r="C447" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D447" s="1">
         <v>11</v>
@@ -9038,7 +9034,7 @@
         <v>3</v>
       </c>
       <c r="C448" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D448" s="1">
         <v>12</v>
@@ -9056,7 +9052,7 @@
         <v>3</v>
       </c>
       <c r="C449" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D449" s="1">
         <v>13</v>
@@ -9074,7 +9070,7 @@
         <v>3</v>
       </c>
       <c r="C450" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D450" s="1">
         <v>14</v>
@@ -9092,7 +9088,7 @@
         <v>3</v>
       </c>
       <c r="C451" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D451" s="1">
         <v>15</v>
@@ -9110,7 +9106,7 @@
         <v>3</v>
       </c>
       <c r="C452" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D452" s="1">
         <v>16</v>
@@ -9128,7 +9124,7 @@
         <v>3</v>
       </c>
       <c r="C453" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D453" s="1">
         <v>17</v>
@@ -9146,7 +9142,7 @@
         <v>3</v>
       </c>
       <c r="C454" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D454" s="1">
         <v>18</v>
@@ -9164,7 +9160,7 @@
         <v>3</v>
       </c>
       <c r="C455" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D455" s="1">
         <v>19</v>
@@ -9182,7 +9178,7 @@
         <v>3</v>
       </c>
       <c r="C456" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D456" s="1">
         <v>20</v>
@@ -9200,7 +9196,7 @@
         <v>3</v>
       </c>
       <c r="C457" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D457" s="1">
         <v>21</v>
@@ -9218,7 +9214,7 @@
         <v>3</v>
       </c>
       <c r="C458" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D458" s="1">
         <v>22</v>
@@ -9236,7 +9232,7 @@
         <v>3</v>
       </c>
       <c r="C459" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D459" s="1">
         <v>1</v>
@@ -9254,7 +9250,7 @@
         <v>3</v>
       </c>
       <c r="C460" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D460" s="1">
         <v>2</v>
@@ -9272,7 +9268,7 @@
         <v>3</v>
       </c>
       <c r="C461" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D461" s="1">
         <v>3</v>
@@ -9290,7 +9286,7 @@
         <v>3</v>
       </c>
       <c r="C462" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D462" s="1">
         <v>4</v>
@@ -9308,7 +9304,7 @@
         <v>3</v>
       </c>
       <c r="C463" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D463" s="1">
         <v>5</v>
@@ -9326,7 +9322,7 @@
         <v>3</v>
       </c>
       <c r="C464" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D464" s="1">
         <v>6</v>
@@ -9344,7 +9340,7 @@
         <v>3</v>
       </c>
       <c r="C465" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D465" s="1">
         <v>7</v>
@@ -9362,7 +9358,7 @@
         <v>3</v>
       </c>
       <c r="C466" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D466" s="1">
         <v>8</v>
@@ -9380,7 +9376,7 @@
         <v>3</v>
       </c>
       <c r="C467" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D467" s="1">
         <v>9</v>
@@ -9398,7 +9394,7 @@
         <v>3</v>
       </c>
       <c r="C468" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D468" s="1">
         <v>10</v>
@@ -9416,7 +9412,7 @@
         <v>3</v>
       </c>
       <c r="C469" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D469" s="1">
         <v>11</v>
@@ -9434,7 +9430,7 @@
         <v>3</v>
       </c>
       <c r="C470" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D470" s="1">
         <v>12</v>
@@ -9452,7 +9448,7 @@
         <v>3</v>
       </c>
       <c r="C471" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D471" s="1">
         <v>13</v>
@@ -9470,7 +9466,7 @@
         <v>3</v>
       </c>
       <c r="C472" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D472" s="1">
         <v>14</v>
@@ -9488,7 +9484,7 @@
         <v>3</v>
       </c>
       <c r="C473" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D473" s="1">
         <v>15</v>
@@ -9506,7 +9502,7 @@
         <v>3</v>
       </c>
       <c r="C474" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D474" s="1">
         <v>16</v>
@@ -9524,7 +9520,7 @@
         <v>3</v>
       </c>
       <c r="C475" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D475" s="1">
         <v>17</v>
@@ -9542,7 +9538,7 @@
         <v>3</v>
       </c>
       <c r="C476" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D476" s="1">
         <v>18</v>
@@ -9560,7 +9556,7 @@
         <v>3</v>
       </c>
       <c r="C477" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D477" s="1">
         <v>19</v>
@@ -9578,7 +9574,7 @@
         <v>3</v>
       </c>
       <c r="C478" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D478" s="1">
         <v>20</v>
@@ -9596,7 +9592,7 @@
         <v>3</v>
       </c>
       <c r="C479" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D479" s="1">
         <v>21</v>
@@ -9614,7 +9610,7 @@
         <v>3</v>
       </c>
       <c r="C480" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D480" s="1">
         <v>22</v>
@@ -9632,7 +9628,7 @@
         <v>3</v>
       </c>
       <c r="C481" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D481" s="1">
         <v>23</v>
@@ -9650,7 +9646,7 @@
         <v>3</v>
       </c>
       <c r="C482" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D482" s="1">
         <v>24</v>
@@ -9668,7 +9664,7 @@
         <v>3</v>
       </c>
       <c r="C483" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D483" s="1">
         <v>25</v>
@@ -9686,7 +9682,7 @@
         <v>3</v>
       </c>
       <c r="C484" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D484" s="1">
         <v>26</v>
@@ -9704,7 +9700,7 @@
         <v>3</v>
       </c>
       <c r="C485" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D485" s="1">
         <v>27</v>
@@ -9722,7 +9718,7 @@
         <v>4</v>
       </c>
       <c r="C486" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D486" s="1">
         <v>1</v>
@@ -9740,7 +9736,7 @@
         <v>4</v>
       </c>
       <c r="C487" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D487" s="1">
         <v>2</v>
@@ -9758,7 +9754,7 @@
         <v>4</v>
       </c>
       <c r="C488" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D488" s="1">
         <v>3</v>
@@ -9776,7 +9772,7 @@
         <v>4</v>
       </c>
       <c r="C489" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D489" s="1">
         <v>4</v>
@@ -9794,7 +9790,7 @@
         <v>4</v>
       </c>
       <c r="C490" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D490" s="1">
         <v>5</v>
@@ -9812,7 +9808,7 @@
         <v>4</v>
       </c>
       <c r="C491" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D491" s="1">
         <v>6</v>
@@ -9830,7 +9826,7 @@
         <v>4</v>
       </c>
       <c r="C492" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D492" s="1">
         <v>7</v>
@@ -9848,7 +9844,7 @@
         <v>4</v>
       </c>
       <c r="C493" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D493" s="1">
         <v>8</v>
@@ -9866,7 +9862,7 @@
         <v>4</v>
       </c>
       <c r="C494" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D494" s="1">
         <v>9</v>
@@ -9884,7 +9880,7 @@
         <v>4</v>
       </c>
       <c r="C495" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D495" s="1">
         <v>10</v>
@@ -9902,7 +9898,7 @@
         <v>4</v>
       </c>
       <c r="C496" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D496" s="1">
         <v>11</v>
@@ -9920,7 +9916,7 @@
         <v>4</v>
       </c>
       <c r="C497" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D497" s="1">
         <v>12</v>
@@ -9938,7 +9934,7 @@
         <v>4</v>
       </c>
       <c r="C498" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D498" s="1">
         <v>13</v>
@@ -9956,7 +9952,7 @@
         <v>4</v>
       </c>
       <c r="C499" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D499" s="1">
         <v>14</v>
@@ -9974,7 +9970,7 @@
         <v>4</v>
       </c>
       <c r="C500" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D500" s="1">
         <v>15</v>
@@ -9992,7 +9988,7 @@
         <v>4</v>
       </c>
       <c r="C501" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D501" s="1">
         <v>16</v>
@@ -10010,7 +10006,7 @@
         <v>4</v>
       </c>
       <c r="C502" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D502" s="1">
         <v>17</v>
@@ -10028,7 +10024,7 @@
         <v>4</v>
       </c>
       <c r="C503" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D503" s="1">
         <v>18</v>
@@ -10046,7 +10042,7 @@
         <v>4</v>
       </c>
       <c r="C504" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D504" s="1">
         <v>19</v>
@@ -10064,7 +10060,7 @@
         <v>4</v>
       </c>
       <c r="C505" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D505" s="1">
         <v>20</v>
@@ -10082,7 +10078,7 @@
         <v>4</v>
       </c>
       <c r="C506" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D506" s="1">
         <v>21</v>
@@ -10100,7 +10096,7 @@
         <v>4</v>
       </c>
       <c r="C507" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D507" s="1">
         <v>22</v>
@@ -10118,7 +10114,7 @@
         <v>4</v>
       </c>
       <c r="C508" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D508" s="1">
         <v>23</v>
@@ -10136,7 +10132,7 @@
         <v>4</v>
       </c>
       <c r="C509" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D509" s="1">
         <v>1</v>
@@ -10154,7 +10150,7 @@
         <v>4</v>
       </c>
       <c r="C510" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D510" s="1">
         <v>2</v>
@@ -10172,7 +10168,7 @@
         <v>4</v>
       </c>
       <c r="C511" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D511" s="1">
         <v>3</v>
@@ -10190,7 +10186,7 @@
         <v>4</v>
       </c>
       <c r="C512" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D512" s="1">
         <v>4</v>
@@ -10208,7 +10204,7 @@
         <v>4</v>
       </c>
       <c r="C513" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D513" s="1">
         <v>5</v>
@@ -10226,7 +10222,7 @@
         <v>4</v>
       </c>
       <c r="C514" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D514" s="1">
         <v>6</v>
@@ -10244,7 +10240,7 @@
         <v>4</v>
       </c>
       <c r="C515" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D515" s="1">
         <v>7</v>
@@ -10262,7 +10258,7 @@
         <v>4</v>
       </c>
       <c r="C516" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D516" s="1">
         <v>8</v>
@@ -10280,7 +10276,7 @@
         <v>4</v>
       </c>
       <c r="C517" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D517" s="1">
         <v>9</v>
@@ -10298,7 +10294,7 @@
         <v>4</v>
       </c>
       <c r="C518" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D518" s="1">
         <v>10</v>
@@ -10316,7 +10312,7 @@
         <v>4</v>
       </c>
       <c r="C519" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D519" s="1">
         <v>11</v>
@@ -10334,7 +10330,7 @@
         <v>4</v>
       </c>
       <c r="C520" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D520" s="1">
         <v>12</v>
@@ -10352,7 +10348,7 @@
         <v>4</v>
       </c>
       <c r="C521" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D521" s="1">
         <v>13</v>
@@ -10370,7 +10366,7 @@
         <v>4</v>
       </c>
       <c r="C522" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D522" s="1">
         <v>14</v>
@@ -10388,7 +10384,7 @@
         <v>4</v>
       </c>
       <c r="C523" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D523" s="1">
         <v>15</v>
@@ -10406,7 +10402,7 @@
         <v>4</v>
       </c>
       <c r="C524" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D524" s="1">
         <v>16</v>
@@ -10424,7 +10420,7 @@
         <v>4</v>
       </c>
       <c r="C525" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D525" s="1">
         <v>17</v>
@@ -10442,7 +10438,7 @@
         <v>4</v>
       </c>
       <c r="C526" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D526" s="1">
         <v>18</v>
@@ -10460,7 +10456,7 @@
         <v>4</v>
       </c>
       <c r="C527" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D527" s="1">
         <v>19</v>
@@ -10478,7 +10474,7 @@
         <v>4</v>
       </c>
       <c r="C528" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D528" s="1">
         <v>20</v>
@@ -10496,7 +10492,7 @@
         <v>4</v>
       </c>
       <c r="C529" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D529" s="1">
         <v>21</v>
@@ -10514,7 +10510,7 @@
         <v>4</v>
       </c>
       <c r="C530" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D530" s="1">
         <v>22</v>
@@ -10532,7 +10528,7 @@
         <v>4</v>
       </c>
       <c r="C531" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D531" s="1">
         <v>23</v>
@@ -10550,7 +10546,7 @@
         <v>4</v>
       </c>
       <c r="C532" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D532" s="1">
         <v>1</v>
@@ -10568,7 +10564,7 @@
         <v>4</v>
       </c>
       <c r="C533" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D533" s="1">
         <v>2</v>
@@ -10586,7 +10582,7 @@
         <v>4</v>
       </c>
       <c r="C534" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D534" s="1">
         <v>3</v>
@@ -10604,7 +10600,7 @@
         <v>4</v>
       </c>
       <c r="C535" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D535" s="1">
         <v>4</v>
@@ -10622,7 +10618,7 @@
         <v>4</v>
       </c>
       <c r="C536" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D536" s="1">
         <v>5</v>
@@ -10640,7 +10636,7 @@
         <v>4</v>
       </c>
       <c r="C537" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D537" s="1">
         <v>6</v>
@@ -10658,7 +10654,7 @@
         <v>4</v>
       </c>
       <c r="C538" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D538" s="1">
         <v>7</v>
@@ -10676,7 +10672,7 @@
         <v>4</v>
       </c>
       <c r="C539" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D539" s="1">
         <v>8</v>
@@ -10694,7 +10690,7 @@
         <v>4</v>
       </c>
       <c r="C540" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D540" s="1">
         <v>9</v>
@@ -10712,7 +10708,7 @@
         <v>4</v>
       </c>
       <c r="C541" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D541" s="1">
         <v>10</v>
@@ -10730,7 +10726,7 @@
         <v>4</v>
       </c>
       <c r="C542" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D542" s="1">
         <v>11</v>
@@ -10748,7 +10744,7 @@
         <v>4</v>
       </c>
       <c r="C543" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D543" s="1">
         <v>12</v>
@@ -10766,7 +10762,7 @@
         <v>4</v>
       </c>
       <c r="C544" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D544" s="1">
         <v>13</v>
@@ -10784,7 +10780,7 @@
         <v>4</v>
       </c>
       <c r="C545" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D545" s="1">
         <v>14</v>
@@ -10802,7 +10798,7 @@
         <v>4</v>
       </c>
       <c r="C546" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D546" s="1">
         <v>15</v>
@@ -10820,7 +10816,7 @@
         <v>4</v>
       </c>
       <c r="C547" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D547" s="1">
         <v>16</v>
@@ -10838,7 +10834,7 @@
         <v>4</v>
       </c>
       <c r="C548" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D548" s="1">
         <v>17</v>
@@ -10856,7 +10852,7 @@
         <v>4</v>
       </c>
       <c r="C549" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D549" s="1">
         <v>18</v>
@@ -10874,7 +10870,7 @@
         <v>4</v>
       </c>
       <c r="C550" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D550" s="1">
         <v>19</v>
@@ -10892,7 +10888,7 @@
         <v>4</v>
       </c>
       <c r="C551" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D551" s="1">
         <v>20</v>
@@ -10910,7 +10906,7 @@
         <v>4</v>
       </c>
       <c r="C552" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D552" s="1">
         <v>21</v>
@@ -10928,7 +10924,7 @@
         <v>4</v>
       </c>
       <c r="C553" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D553" s="1">
         <v>22</v>
@@ -10946,7 +10942,7 @@
         <v>4</v>
       </c>
       <c r="C554" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D554" s="1">
         <v>23</v>
@@ -10964,7 +10960,7 @@
         <v>4</v>
       </c>
       <c r="C555" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D555" s="1">
         <v>24</v>
@@ -10982,7 +10978,7 @@
         <v>4</v>
       </c>
       <c r="C556" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D556" s="1">
         <v>25</v>
@@ -11000,7 +10996,7 @@
         <v>4</v>
       </c>
       <c r="C557" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D557" s="1">
         <v>26</v>
@@ -11018,7 +11014,7 @@
         <v>4</v>
       </c>
       <c r="C558" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D558" s="1">
         <v>27</v>
@@ -11036,7 +11032,7 @@
         <v>4</v>
       </c>
       <c r="C559" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D559" s="1">
         <v>1</v>
@@ -11054,7 +11050,7 @@
         <v>4</v>
       </c>
       <c r="C560" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D560" s="1">
         <v>2</v>
@@ -11072,7 +11068,7 @@
         <v>4</v>
       </c>
       <c r="C561" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D561" s="1">
         <v>3</v>
@@ -11090,7 +11086,7 @@
         <v>4</v>
       </c>
       <c r="C562" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D562" s="1">
         <v>4</v>
@@ -11108,7 +11104,7 @@
         <v>4</v>
       </c>
       <c r="C563" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D563" s="1">
         <v>5</v>
@@ -11126,7 +11122,7 @@
         <v>4</v>
       </c>
       <c r="C564" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D564" s="1">
         <v>6</v>
@@ -11144,7 +11140,7 @@
         <v>4</v>
       </c>
       <c r="C565" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D565" s="1">
         <v>7</v>
@@ -11162,7 +11158,7 @@
         <v>4</v>
       </c>
       <c r="C566" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D566" s="1">
         <v>8</v>
@@ -11180,7 +11176,7 @@
         <v>4</v>
       </c>
       <c r="C567" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D567" s="1">
         <v>9</v>
@@ -11198,7 +11194,7 @@
         <v>4</v>
       </c>
       <c r="C568" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D568" s="1">
         <v>10</v>
@@ -11216,7 +11212,7 @@
         <v>4</v>
       </c>
       <c r="C569" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D569" s="1">
         <v>11</v>
@@ -11234,7 +11230,7 @@
         <v>4</v>
       </c>
       <c r="C570" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D570" s="1">
         <v>12</v>
@@ -11252,7 +11248,7 @@
         <v>4</v>
       </c>
       <c r="C571" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D571" s="1">
         <v>13</v>
@@ -11270,7 +11266,7 @@
         <v>4</v>
       </c>
       <c r="C572" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D572" s="1">
         <v>14</v>
@@ -11288,7 +11284,7 @@
         <v>4</v>
       </c>
       <c r="C573" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D573" s="1">
         <v>15</v>
@@ -11306,7 +11302,7 @@
         <v>4</v>
       </c>
       <c r="C574" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D574" s="1">
         <v>16</v>
@@ -11324,7 +11320,7 @@
         <v>4</v>
       </c>
       <c r="C575" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D575" s="1">
         <v>17</v>
@@ -11342,7 +11338,7 @@
         <v>4</v>
       </c>
       <c r="C576" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D576" s="1">
         <v>18</v>
@@ -11360,7 +11356,7 @@
         <v>4</v>
       </c>
       <c r="C577" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D577" s="1">
         <v>19</v>
@@ -11378,7 +11374,7 @@
         <v>5</v>
       </c>
       <c r="C578" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D578" s="1">
         <v>1</v>
@@ -11396,7 +11392,7 @@
         <v>5</v>
       </c>
       <c r="C579" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D579" s="1">
         <v>2</v>
@@ -11414,7 +11410,7 @@
         <v>5</v>
       </c>
       <c r="C580" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D580" s="1">
         <v>3</v>
@@ -11432,7 +11428,7 @@
         <v>5</v>
       </c>
       <c r="C581" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D581" s="1">
         <v>4</v>
@@ -11450,7 +11446,7 @@
         <v>5</v>
       </c>
       <c r="C582" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D582" s="1">
         <v>5</v>
@@ -11468,7 +11464,7 @@
         <v>5</v>
       </c>
       <c r="C583" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D583" s="1">
         <v>6</v>
@@ -11486,7 +11482,7 @@
         <v>5</v>
       </c>
       <c r="C584" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D584" s="1">
         <v>7</v>
@@ -11504,7 +11500,7 @@
         <v>5</v>
       </c>
       <c r="C585" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D585" s="1">
         <v>8</v>
@@ -11522,7 +11518,7 @@
         <v>5</v>
       </c>
       <c r="C586" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D586" s="1">
         <v>9</v>
@@ -11540,7 +11536,7 @@
         <v>5</v>
       </c>
       <c r="C587" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D587" s="1">
         <v>10</v>
@@ -11558,7 +11554,7 @@
         <v>5</v>
       </c>
       <c r="C588" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D588" s="1">
         <v>11</v>
@@ -11576,7 +11572,7 @@
         <v>5</v>
       </c>
       <c r="C589" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D589" s="1">
         <v>12</v>
@@ -11594,7 +11590,7 @@
         <v>5</v>
       </c>
       <c r="C590" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D590" s="1">
         <v>13</v>
@@ -11612,7 +11608,7 @@
         <v>5</v>
       </c>
       <c r="C591" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D591" s="1">
         <v>14</v>
@@ -11630,7 +11626,7 @@
         <v>5</v>
       </c>
       <c r="C592" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D592" s="1">
         <v>15</v>
@@ -11648,7 +11644,7 @@
         <v>5</v>
       </c>
       <c r="C593" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D593" s="1">
         <v>16</v>
@@ -11666,7 +11662,7 @@
         <v>5</v>
       </c>
       <c r="C594" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D594" s="1">
         <v>17</v>
@@ -11684,7 +11680,7 @@
         <v>5</v>
       </c>
       <c r="C595" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D595" s="1">
         <v>18</v>
@@ -11702,7 +11698,7 @@
         <v>5</v>
       </c>
       <c r="C596" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D596" s="1">
         <v>19</v>
@@ -11720,7 +11716,7 @@
         <v>5</v>
       </c>
       <c r="C597" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D597" s="1">
         <v>20</v>
@@ -11738,7 +11734,7 @@
         <v>5</v>
       </c>
       <c r="C598" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D598" s="1">
         <v>21</v>
@@ -11756,7 +11752,7 @@
         <v>5</v>
       </c>
       <c r="C599" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D599" s="1">
         <v>22</v>
@@ -11774,7 +11770,7 @@
         <v>5</v>
       </c>
       <c r="C600" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D600" s="1">
         <v>23</v>
@@ -11792,7 +11788,7 @@
         <v>5</v>
       </c>
       <c r="C601" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D601" s="1">
         <v>24</v>
@@ -11810,7 +11806,7 @@
         <v>5</v>
       </c>
       <c r="C602" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D602" s="1">
         <v>25</v>
@@ -11828,7 +11824,7 @@
         <v>5</v>
       </c>
       <c r="C603" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D603" s="1">
         <v>1</v>
@@ -11846,7 +11842,7 @@
         <v>5</v>
       </c>
       <c r="C604" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D604" s="1">
         <v>2</v>
@@ -11864,7 +11860,7 @@
         <v>5</v>
       </c>
       <c r="C605" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D605" s="1">
         <v>3</v>
@@ -11882,7 +11878,7 @@
         <v>5</v>
       </c>
       <c r="C606" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D606" s="1">
         <v>4</v>
@@ -11900,7 +11896,7 @@
         <v>5</v>
       </c>
       <c r="C607" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D607" s="1">
         <v>5</v>
@@ -11918,7 +11914,7 @@
         <v>5</v>
       </c>
       <c r="C608" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D608" s="1">
         <v>6</v>
@@ -11936,7 +11932,7 @@
         <v>5</v>
       </c>
       <c r="C609" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D609" s="1">
         <v>7</v>
@@ -11954,7 +11950,7 @@
         <v>5</v>
       </c>
       <c r="C610" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D610" s="1">
         <v>8</v>
@@ -11972,7 +11968,7 @@
         <v>5</v>
       </c>
       <c r="C611" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D611" s="1">
         <v>9</v>
@@ -11990,7 +11986,7 @@
         <v>5</v>
       </c>
       <c r="C612" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D612" s="1">
         <v>10</v>
@@ -12008,7 +12004,7 @@
         <v>5</v>
       </c>
       <c r="C613" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D613" s="1">
         <v>11</v>
@@ -12026,7 +12022,7 @@
         <v>5</v>
       </c>
       <c r="C614" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D614" s="1">
         <v>12</v>
@@ -12044,7 +12040,7 @@
         <v>5</v>
       </c>
       <c r="C615" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D615" s="1">
         <v>13</v>
@@ -12062,7 +12058,7 @@
         <v>5</v>
       </c>
       <c r="C616" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D616" s="1">
         <v>14</v>
@@ -12080,7 +12076,7 @@
         <v>5</v>
       </c>
       <c r="C617" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D617" s="1">
         <v>15</v>
@@ -12098,7 +12094,7 @@
         <v>5</v>
       </c>
       <c r="C618" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D618" s="1">
         <v>16</v>
@@ -12116,7 +12112,7 @@
         <v>5</v>
       </c>
       <c r="C619" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D619" s="1">
         <v>17</v>
@@ -12134,7 +12130,7 @@
         <v>5</v>
       </c>
       <c r="C620" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D620" s="1">
         <v>18</v>
@@ -12152,7 +12148,7 @@
         <v>5</v>
       </c>
       <c r="C621" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D621" s="1">
         <v>19</v>
@@ -12170,7 +12166,7 @@
         <v>5</v>
       </c>
       <c r="C622" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D622" s="1">
         <v>20</v>
@@ -12188,7 +12184,7 @@
         <v>5</v>
       </c>
       <c r="C623" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D623" s="1">
         <v>21</v>
@@ -12206,7 +12202,7 @@
         <v>5</v>
       </c>
       <c r="C624" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D624" s="1">
         <v>22</v>
@@ -12224,7 +12220,7 @@
         <v>5</v>
       </c>
       <c r="C625" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D625" s="1">
         <v>23</v>
@@ -12242,7 +12238,7 @@
         <v>5</v>
       </c>
       <c r="C626" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D626" s="1">
         <v>24</v>
@@ -12260,7 +12256,7 @@
         <v>5</v>
       </c>
       <c r="C627" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D627" s="1">
         <v>25</v>
@@ -12278,7 +12274,7 @@
         <v>5</v>
       </c>
       <c r="C628" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D628" s="1">
         <v>26</v>
@@ -12296,7 +12292,7 @@
         <v>5</v>
       </c>
       <c r="C629" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D629" s="1">
         <v>27</v>
@@ -12314,7 +12310,7 @@
         <v>5</v>
       </c>
       <c r="C630" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D630" s="1">
         <v>28</v>
@@ -12332,7 +12328,7 @@
         <v>5</v>
       </c>
       <c r="C631" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D631" s="1">
         <v>29</v>
@@ -12350,7 +12346,7 @@
         <v>5</v>
       </c>
       <c r="C632" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D632" s="1">
         <v>30</v>
@@ -12368,7 +12364,7 @@
         <v>5</v>
       </c>
       <c r="C633" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D633" s="1">
         <v>31</v>
@@ -12386,7 +12382,7 @@
         <v>5</v>
       </c>
       <c r="C634" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D634" s="1">
         <v>32</v>
@@ -12404,7 +12400,7 @@
         <v>5</v>
       </c>
       <c r="C635" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D635" s="1">
         <v>33</v>
@@ -12422,7 +12418,7 @@
         <v>5</v>
       </c>
       <c r="C636" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D636" s="1">
         <v>34</v>
@@ -12440,7 +12436,7 @@
         <v>5</v>
       </c>
       <c r="C637" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D637" s="1">
         <v>35</v>
@@ -12458,7 +12454,7 @@
         <v>5</v>
       </c>
       <c r="C638" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D638" s="1">
         <v>36</v>
@@ -12476,7 +12472,7 @@
         <v>5</v>
       </c>
       <c r="C639" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D639" s="1">
         <v>1</v>
@@ -12494,7 +12490,7 @@
         <v>5</v>
       </c>
       <c r="C640" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D640" s="1">
         <v>2</v>
@@ -12512,7 +12508,7 @@
         <v>5</v>
       </c>
       <c r="C641" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D641" s="1">
         <v>3</v>
@@ -12530,7 +12526,7 @@
         <v>5</v>
       </c>
       <c r="C642" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D642" s="1">
         <v>4</v>
@@ -12548,7 +12544,7 @@
         <v>5</v>
       </c>
       <c r="C643" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D643" s="1">
         <v>5</v>
@@ -12566,7 +12562,7 @@
         <v>5</v>
       </c>
       <c r="C644" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D644" s="1">
         <v>6</v>
@@ -12584,7 +12580,7 @@
         <v>5</v>
       </c>
       <c r="C645" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D645" s="1">
         <v>7</v>
@@ -12602,7 +12598,7 @@
         <v>5</v>
       </c>
       <c r="C646" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D646" s="1">
         <v>8</v>
@@ -12620,7 +12616,7 @@
         <v>5</v>
       </c>
       <c r="C647" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D647" s="1">
         <v>9</v>
@@ -12638,7 +12634,7 @@
         <v>5</v>
       </c>
       <c r="C648" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D648" s="1">
         <v>10</v>
@@ -12656,7 +12652,7 @@
         <v>5</v>
       </c>
       <c r="C649" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D649" s="1">
         <v>11</v>
@@ -12674,7 +12670,7 @@
         <v>5</v>
       </c>
       <c r="C650" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D650" s="1">
         <v>12</v>
@@ -12692,7 +12688,7 @@
         <v>5</v>
       </c>
       <c r="C651" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D651" s="1">
         <v>13</v>
@@ -12710,7 +12706,7 @@
         <v>5</v>
       </c>
       <c r="C652" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D652" s="1">
         <v>14</v>
@@ -12728,7 +12724,7 @@
         <v>5</v>
       </c>
       <c r="C653" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D653" s="1">
         <v>15</v>
@@ -12746,7 +12742,7 @@
         <v>5</v>
       </c>
       <c r="C654" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D654" s="1">
         <v>16</v>
@@ -12764,7 +12760,7 @@
         <v>5</v>
       </c>
       <c r="C655" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D655" s="1">
         <v>17</v>
@@ -12782,7 +12778,7 @@
         <v>5</v>
       </c>
       <c r="C656" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D656" s="1">
         <v>18</v>
@@ -12800,7 +12796,7 @@
         <v>5</v>
       </c>
       <c r="C657" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D657" s="1">
         <v>19</v>
@@ -12818,7 +12814,7 @@
         <v>5</v>
       </c>
       <c r="C658" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D658" s="1">
         <v>20</v>
@@ -12836,7 +12832,7 @@
         <v>5</v>
       </c>
       <c r="C659" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D659" s="1">
         <v>21</v>
@@ -12854,7 +12850,7 @@
         <v>5</v>
       </c>
       <c r="C660" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D660" s="1">
         <v>1</v>
@@ -12872,7 +12868,7 @@
         <v>5</v>
       </c>
       <c r="C661" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D661" s="1">
         <v>2</v>
@@ -12890,7 +12886,7 @@
         <v>5</v>
       </c>
       <c r="C662" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D662" s="1">
         <v>3</v>
@@ -12908,7 +12904,7 @@
         <v>5</v>
       </c>
       <c r="C663" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D663" s="1">
         <v>4</v>
@@ -12926,7 +12922,7 @@
         <v>5</v>
       </c>
       <c r="C664" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D664" s="1">
         <v>5</v>
@@ -12944,7 +12940,7 @@
         <v>5</v>
       </c>
       <c r="C665" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D665" s="1">
         <v>6</v>
@@ -12962,7 +12958,7 @@
         <v>5</v>
       </c>
       <c r="C666" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D666" s="1">
         <v>7</v>
@@ -12980,7 +12976,7 @@
         <v>5</v>
       </c>
       <c r="C667" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D667" s="1">
         <v>8</v>
@@ -12998,7 +12994,7 @@
         <v>5</v>
       </c>
       <c r="C668" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D668" s="1">
         <v>9</v>
@@ -13016,7 +13012,7 @@
         <v>5</v>
       </c>
       <c r="C669" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D669" s="1">
         <v>10</v>
@@ -13034,7 +13030,7 @@
         <v>5</v>
       </c>
       <c r="C670" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D670" s="1">
         <v>11</v>
@@ -13052,7 +13048,7 @@
         <v>5</v>
       </c>
       <c r="C671" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D671" s="1">
         <v>12</v>
@@ -13070,7 +13066,7 @@
         <v>5</v>
       </c>
       <c r="C672" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D672" s="1">
         <v>13</v>
@@ -13088,7 +13084,7 @@
         <v>5</v>
       </c>
       <c r="C673" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D673" s="1">
         <v>14</v>
@@ -13106,7 +13102,7 @@
         <v>5</v>
       </c>
       <c r="C674" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D674" s="1">
         <v>15</v>
@@ -13124,7 +13120,7 @@
         <v>5</v>
       </c>
       <c r="C675" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D675" s="1">
         <v>16</v>
@@ -13142,7 +13138,7 @@
         <v>5</v>
       </c>
       <c r="C676" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D676" s="1">
         <v>17</v>
@@ -13160,7 +13156,7 @@
         <v>5</v>
       </c>
       <c r="C677" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D677" s="1">
         <v>18</v>
@@ -13178,7 +13174,7 @@
         <v>5</v>
       </c>
       <c r="C678" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D678" s="1">
         <v>19</v>
@@ -13196,7 +13192,7 @@
         <v>5</v>
       </c>
       <c r="C679" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D679" s="1">
         <v>20</v>
@@ -13214,7 +13210,7 @@
         <v>5</v>
       </c>
       <c r="C680" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D680" s="1">
         <v>21</v>
@@ -13232,7 +13228,7 @@
         <v>5</v>
       </c>
       <c r="C681" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D681" s="1">
         <v>22</v>
@@ -13250,7 +13246,7 @@
         <v>5</v>
       </c>
       <c r="C682" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D682" s="1">
         <v>23</v>
@@ -13268,7 +13264,7 @@
         <v>5</v>
       </c>
       <c r="C683" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D683" s="1">
         <v>24</v>
@@ -13286,7 +13282,7 @@
         <v>5</v>
       </c>
       <c r="C684" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D684" s="1">
         <v>25</v>
@@ -13304,7 +13300,7 @@
         <v>5</v>
       </c>
       <c r="C685" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D685" s="1">
         <v>26</v>
